--- a/김준섭/2024년도 국내 캔위성 대회 구매 품목 리스트 20240705.xlsx
+++ b/김준섭/2024년도 국내 캔위성 대회 구매 품목 리스트 20240705.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjs\Projects\HanaDulSAT\김준섭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95542A76-7FC1-4944-9766-5ECA11147160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168FDECC-FC06-4DB7-BEBD-897E8A18ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2908,7 +2908,7 @@
     <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
     <numFmt numFmtId="177" formatCode="_-[$₩-412]* #,##0.00_-;\-[$₩-412]* #,##0.00_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="54">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3183,12 +3183,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -3631,7 +3625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4047,7 +4041,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4056,7 +4050,7 @@
     <xf numFmtId="10" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="37" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4068,13 +4062,13 @@
     <xf numFmtId="176" fontId="37" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4107,10 +4101,10 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4118,6 +4112,30 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4160,133 +4178,19 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="37" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="29" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="37" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5281,7 +5185,7 @@
     </row>
     <row r="14" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
       <c r="A14" s="150"/>
-      <c r="B14" s="181" t="s">
+      <c r="B14" s="189" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="156" t="s">
@@ -5332,7 +5236,7 @@
     </row>
     <row r="15" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
       <c r="A15" s="150"/>
-      <c r="B15" s="182"/>
+      <c r="B15" s="190"/>
       <c r="C15" s="155" t="s">
         <v>73</v>
       </c>
@@ -35254,7 +35158,7 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="13.2">
-      <c r="C6" s="183"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="43"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
@@ -35267,7 +35171,7 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="13.2">
-      <c r="C7" s="184"/>
+      <c r="C7" s="192"/>
       <c r="D7" s="44"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
@@ -35280,7 +35184,7 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="13.2">
-      <c r="C8" s="184"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="45"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
@@ -35293,7 +35197,7 @@
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" ht="13.2">
-      <c r="C9" s="184"/>
+      <c r="C9" s="192"/>
       <c r="D9" s="45"/>
       <c r="E9" s="14"/>
       <c r="F9" s="19"/>
@@ -35306,7 +35210,7 @@
       <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:13" ht="13.2">
-      <c r="C10" s="185"/>
+      <c r="C10" s="193"/>
       <c r="D10" s="45"/>
       <c r="E10" s="14"/>
       <c r="F10" s="19"/>
@@ -35435,15 +35339,15 @@
       <c r="C1" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="189" t="s">
+      <c r="D1" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="191"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
+      <c r="J1" s="199"/>
     </row>
     <row r="2" spans="3:10" ht="15.75" customHeight="1">
       <c r="C2" s="78" t="s">
@@ -35482,7 +35386,7 @@
       <c r="J3" s="83"/>
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C4" s="192"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="85"/>
       <c r="E4" s="86"/>
       <c r="F4" s="87"/>
@@ -35492,7 +35396,7 @@
       <c r="J4" s="88"/>
     </row>
     <row r="5" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C5" s="193"/>
+      <c r="C5" s="201"/>
       <c r="D5" s="85"/>
       <c r="E5" s="86"/>
       <c r="F5" s="90"/>
@@ -35502,7 +35406,7 @@
       <c r="J5" s="88"/>
     </row>
     <row r="6" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C6" s="194"/>
+      <c r="C6" s="202"/>
       <c r="D6" s="92"/>
       <c r="E6" s="93"/>
       <c r="F6" s="94"/>
@@ -35512,7 +35416,7 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C7" s="195"/>
+      <c r="C7" s="203"/>
       <c r="D7" s="92"/>
       <c r="E7" s="93"/>
       <c r="F7" s="94"/>
@@ -35522,7 +35426,7 @@
       <c r="J7" s="95"/>
     </row>
     <row r="8" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C8" s="193"/>
+      <c r="C8" s="201"/>
       <c r="D8" s="92"/>
       <c r="E8" s="93"/>
       <c r="F8" s="94"/>
@@ -35542,15 +35446,15 @@
       <c r="J9" s="101"/>
     </row>
     <row r="10" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="204" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="196"/>
       <c r="J10" s="103">
         <f>SUM(J3:J9)</f>
         <v>0</v>
@@ -35570,15 +35474,15 @@
       <c r="C12" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="197" t="s">
+      <c r="D12" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="188"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="196"/>
     </row>
     <row r="13" spans="3:10" ht="15.75" customHeight="1">
       <c r="C13" s="78" t="s">
@@ -35637,15 +35541,15 @@
       <c r="J16" s="122"/>
     </row>
     <row r="17" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C17" s="198" t="s">
+      <c r="C17" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="188"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="196"/>
       <c r="J17" s="124">
         <f>SUM(J14:J16)</f>
         <v>0</v>
@@ -35695,15 +35599,15 @@
       <c r="C22" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="197" t="s">
+      <c r="D22" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="188"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="196"/>
     </row>
     <row r="23" spans="3:11" ht="15.75" customHeight="1">
       <c r="C23" s="78" t="s">
@@ -35743,7 +35647,7 @@
       <c r="K24" s="30"/>
     </row>
     <row r="25" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C25" s="199"/>
+      <c r="C25" s="207"/>
       <c r="D25" s="113"/>
       <c r="E25" s="114"/>
       <c r="F25" s="132"/>
@@ -35754,7 +35658,7 @@
       <c r="K25" s="30"/>
     </row>
     <row r="26" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C26" s="193"/>
+      <c r="C26" s="201"/>
       <c r="D26" s="113"/>
       <c r="E26" s="114"/>
       <c r="F26" s="132"/>
@@ -35765,7 +35669,7 @@
       <c r="K26" s="30"/>
     </row>
     <row r="27" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C27" s="200"/>
+      <c r="C27" s="208"/>
       <c r="D27" s="119"/>
       <c r="E27" s="120"/>
       <c r="F27" s="121"/>
@@ -35776,7 +35680,7 @@
       <c r="K27" s="30"/>
     </row>
     <row r="28" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C28" s="193"/>
+      <c r="C28" s="201"/>
       <c r="D28" s="133"/>
       <c r="E28" s="120"/>
       <c r="F28" s="121"/>
@@ -35798,9 +35702,9 @@
       <c r="K29" s="30"/>
     </row>
     <row r="30" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C30" s="201"/>
-      <c r="D30" s="202"/>
-      <c r="E30" s="203"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="211"/>
       <c r="F30" s="100"/>
       <c r="G30" s="101"/>
       <c r="H30" s="102"/>
@@ -35809,9 +35713,9 @@
       <c r="K30" s="30"/>
     </row>
     <row r="31" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C31" s="193"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
       <c r="F31" s="100"/>
       <c r="G31" s="101"/>
       <c r="H31" s="102"/>
@@ -35831,15 +35735,15 @@
       <c r="K32" s="30"/>
     </row>
     <row r="33" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C33" s="186" t="s">
+      <c r="C33" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="188"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="196"/>
       <c r="J33" s="135">
         <f>SUM(J24:J32)</f>
         <v>0</v>
@@ -35875,8 +35779,8 @@
   </sheetPr>
   <dimension ref="A1:AB1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -35948,1378 +35852,1378 @@
       <c r="AA1" s="136"/>
       <c r="AB1" s="136"/>
     </row>
-    <row r="2" spans="1:28" s="210" customFormat="1" ht="66">
-      <c r="A2" s="204" t="s">
+    <row r="2" spans="1:28" ht="66">
+      <c r="A2" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="205" t="s">
+      <c r="D2" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="204" t="s">
+      <c r="F2" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="204">
+      <c r="G2" s="149">
         <v>1</v>
       </c>
-      <c r="H2" s="206">
+      <c r="H2" s="158">
         <v>161050</v>
       </c>
-      <c r="I2" s="207">
+      <c r="I2" s="159">
         <v>0</v>
       </c>
-      <c r="J2" s="208">
+      <c r="J2" s="175">
         <v>0</v>
       </c>
-      <c r="K2" s="206">
+      <c r="K2" s="158">
         <f t="shared" ref="K2:K28" si="0">H2*G2+H2*I2*G2+J2</f>
         <v>161050</v>
       </c>
-      <c r="L2" s="204" t="s">
+      <c r="L2" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="209"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="209"/>
-      <c r="P2" s="209"/>
-      <c r="Q2" s="209"/>
-      <c r="R2" s="209"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="209"/>
-      <c r="U2" s="209"/>
-      <c r="V2" s="209"/>
-      <c r="W2" s="209"/>
-      <c r="X2" s="209"/>
-      <c r="Y2" s="209"/>
-      <c r="Z2" s="209"/>
-      <c r="AA2" s="209"/>
-      <c r="AB2" s="209"/>
-    </row>
-    <row r="3" spans="1:28" s="219" customFormat="1" ht="52.8">
-      <c r="A3" s="211"/>
-      <c r="B3" s="212" t="s">
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+    </row>
+    <row r="3" spans="1:28" s="144" customFormat="1" ht="52.8">
+      <c r="A3" s="150"/>
+      <c r="B3" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="155" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="214" t="s">
+      <c r="E3" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="214" t="s">
+      <c r="F3" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="214">
+      <c r="G3" s="152">
         <v>1</v>
       </c>
-      <c r="H3" s="215">
+      <c r="H3" s="161">
         <v>82450</v>
       </c>
-      <c r="I3" s="216">
+      <c r="I3" s="162">
         <v>0</v>
       </c>
-      <c r="J3" s="215">
+      <c r="J3" s="161">
         <v>0</v>
       </c>
-      <c r="K3" s="206">
+      <c r="K3" s="158">
         <f t="shared" si="0"/>
         <v>82450</v>
       </c>
-      <c r="L3" s="217"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="218"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="218"/>
-      <c r="T3" s="218"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="218"/>
-      <c r="W3" s="218"/>
-      <c r="X3" s="218"/>
-      <c r="Y3" s="218"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="218"/>
-      <c r="AB3" s="218"/>
-    </row>
-    <row r="4" spans="1:28" s="219" customFormat="1" ht="79.2">
-      <c r="A4" s="211"/>
-      <c r="B4" s="212" t="s">
+      <c r="L3" s="164"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+    </row>
+    <row r="4" spans="1:28" s="144" customFormat="1" ht="79.2">
+      <c r="A4" s="150"/>
+      <c r="B4" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="155" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="160" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="214" t="s">
+      <c r="E4" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="214" t="s">
+      <c r="F4" s="152" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="214">
+      <c r="G4" s="152">
         <v>2</v>
       </c>
-      <c r="H4" s="215">
+      <c r="H4" s="161">
         <v>22000</v>
       </c>
-      <c r="I4" s="216">
+      <c r="I4" s="162">
         <v>0</v>
       </c>
-      <c r="J4" s="215">
+      <c r="J4" s="161">
         <v>2700</v>
       </c>
-      <c r="K4" s="206">
+      <c r="K4" s="158">
         <f t="shared" si="0"/>
         <v>46700</v>
       </c>
-      <c r="L4" s="214"/>
-      <c r="M4" s="218"/>
-      <c r="N4" s="218"/>
-      <c r="O4" s="218"/>
-      <c r="P4" s="218"/>
-      <c r="Q4" s="218"/>
-      <c r="R4" s="218"/>
-      <c r="S4" s="218"/>
-      <c r="T4" s="218"/>
-      <c r="U4" s="218"/>
-      <c r="V4" s="218"/>
-      <c r="W4" s="218"/>
-      <c r="X4" s="218"/>
-      <c r="Y4" s="218"/>
-      <c r="Z4" s="218"/>
-      <c r="AA4" s="218"/>
-      <c r="AB4" s="218"/>
-    </row>
-    <row r="5" spans="1:28" s="219" customFormat="1" ht="84.6" customHeight="1">
-      <c r="A5" s="211"/>
-      <c r="B5" s="212" t="s">
+      <c r="L4" s="152"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+    </row>
+    <row r="5" spans="1:28" s="144" customFormat="1" ht="84.6" customHeight="1">
+      <c r="A5" s="150"/>
+      <c r="B5" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="213" t="s">
+      <c r="C5" s="155" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="214" t="s">
+      <c r="E5" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="214" t="s">
+      <c r="F5" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="214">
+      <c r="G5" s="152">
         <v>1</v>
       </c>
-      <c r="H5" s="215">
+      <c r="H5" s="161">
         <v>115000</v>
       </c>
-      <c r="I5" s="216">
+      <c r="I5" s="162">
         <v>0</v>
       </c>
-      <c r="J5" s="215">
+      <c r="J5" s="161">
         <v>0</v>
       </c>
-      <c r="K5" s="206">
+      <c r="K5" s="158">
         <f t="shared" si="0"/>
         <v>115000</v>
       </c>
-      <c r="L5" s="214"/>
-      <c r="M5" s="218"/>
-      <c r="N5" s="218"/>
-      <c r="O5" s="218"/>
-      <c r="P5" s="218"/>
-      <c r="Q5" s="218"/>
-      <c r="R5" s="218"/>
-      <c r="S5" s="218"/>
-      <c r="T5" s="218"/>
-      <c r="U5" s="218"/>
-      <c r="V5" s="218"/>
-      <c r="W5" s="218"/>
-      <c r="X5" s="218"/>
-      <c r="Y5" s="218"/>
-      <c r="Z5" s="218"/>
-      <c r="AA5" s="218"/>
-      <c r="AB5" s="218"/>
-    </row>
-    <row r="6" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A6" s="211"/>
-      <c r="B6" s="212" t="s">
+      <c r="L5" s="152"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+    </row>
+    <row r="6" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A6" s="150"/>
+      <c r="B6" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="155" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="214" t="s">
+      <c r="E6" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="214" t="s">
+      <c r="F6" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="214">
+      <c r="G6" s="152">
         <v>2</v>
       </c>
-      <c r="H6" s="215">
+      <c r="H6" s="161">
         <v>23500</v>
       </c>
-      <c r="I6" s="216">
+      <c r="I6" s="162">
         <v>0</v>
       </c>
-      <c r="J6" s="220">
+      <c r="J6" s="174">
         <v>0</v>
       </c>
-      <c r="K6" s="206">
+      <c r="K6" s="158">
         <f>H6*G6+H6*I6*G6+J7</f>
         <v>50000</v>
       </c>
-      <c r="L6" s="214"/>
-      <c r="M6" s="218"/>
-      <c r="N6" s="218"/>
-      <c r="O6" s="218"/>
-      <c r="P6" s="218"/>
-      <c r="Q6" s="218"/>
-      <c r="R6" s="218"/>
-      <c r="S6" s="218"/>
-      <c r="T6" s="218"/>
-      <c r="U6" s="218"/>
-      <c r="V6" s="218"/>
-      <c r="W6" s="218"/>
-      <c r="X6" s="218"/>
-      <c r="Y6" s="218"/>
-      <c r="Z6" s="218"/>
-      <c r="AA6" s="218"/>
-      <c r="AB6" s="218"/>
-    </row>
-    <row r="7" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A7" s="211"/>
-      <c r="B7" s="212" t="s">
+      <c r="L6" s="152"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
+      <c r="AB6" s="140"/>
+    </row>
+    <row r="7" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A7" s="150"/>
+      <c r="B7" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="221" t="s">
+      <c r="C7" s="168" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="214" t="s">
+      <c r="E7" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="214" t="s">
+      <c r="F7" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="214">
+      <c r="G7" s="152">
         <v>2</v>
       </c>
-      <c r="H7" s="215">
+      <c r="H7" s="161">
         <v>9500</v>
       </c>
-      <c r="I7" s="216">
+      <c r="I7" s="162">
         <v>0</v>
       </c>
-      <c r="J7" s="215">
+      <c r="J7" s="161">
         <v>3000</v>
       </c>
-      <c r="K7" s="206" t="e">
+      <c r="K7" s="158" t="e">
         <f>H7*G7+H7*I7*G7+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L7" s="222"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="218"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="218"/>
-      <c r="S7" s="218"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="218"/>
-      <c r="W7" s="218"/>
-      <c r="X7" s="218"/>
-      <c r="Y7" s="218"/>
-      <c r="Z7" s="218"/>
-      <c r="AA7" s="218"/>
-      <c r="AB7" s="218"/>
-    </row>
-    <row r="8" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A8" s="211"/>
-      <c r="B8" s="212" t="s">
+      <c r="L7" s="165"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AB7" s="140"/>
+    </row>
+    <row r="8" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A8" s="150"/>
+      <c r="B8" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="155" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="214" t="s">
+      <c r="E8" s="152" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="214" t="s">
+      <c r="F8" s="152" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="214">
+      <c r="G8" s="152">
         <v>2</v>
       </c>
-      <c r="H8" s="215">
+      <c r="H8" s="161">
         <v>800</v>
       </c>
-      <c r="I8" s="216">
+      <c r="I8" s="162">
         <v>0</v>
       </c>
-      <c r="J8" s="215">
+      <c r="J8" s="161">
         <v>0</v>
       </c>
-      <c r="K8" s="206">
+      <c r="K8" s="158">
         <f>H8*G8+H8*I8*G8+J8</f>
         <v>1600</v>
       </c>
-      <c r="L8" s="214"/>
-      <c r="M8" s="218"/>
-      <c r="N8" s="218"/>
-      <c r="O8" s="218"/>
-      <c r="P8" s="218"/>
-      <c r="Q8" s="218"/>
-      <c r="R8" s="218"/>
-      <c r="S8" s="218"/>
-      <c r="T8" s="218"/>
-      <c r="U8" s="218"/>
-      <c r="V8" s="218"/>
-      <c r="W8" s="218"/>
-      <c r="X8" s="218"/>
-      <c r="Y8" s="218"/>
-      <c r="Z8" s="218"/>
-      <c r="AA8" s="218"/>
-      <c r="AB8" s="218"/>
-    </row>
-    <row r="9" spans="1:28" s="219" customFormat="1" ht="27.6" customHeight="1">
-      <c r="A9" s="211"/>
-      <c r="B9" s="223" t="s">
+      <c r="L8" s="152"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
+    </row>
+    <row r="9" spans="1:28" s="144" customFormat="1" ht="27.6" customHeight="1">
+      <c r="A9" s="150"/>
+      <c r="B9" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="213" t="s">
+      <c r="C9" s="155" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="224" t="s">
+      <c r="E9" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="214" t="s">
+      <c r="F9" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="214">
+      <c r="G9" s="152">
         <v>1</v>
       </c>
-      <c r="H9" s="215">
+      <c r="H9" s="161">
         <v>6500</v>
       </c>
-      <c r="I9" s="216">
+      <c r="I9" s="162">
         <v>0</v>
       </c>
-      <c r="J9" s="215">
+      <c r="J9" s="161">
         <v>0</v>
       </c>
-      <c r="K9" s="206">
+      <c r="K9" s="158">
         <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="L9" s="214"/>
-      <c r="M9" s="218"/>
-      <c r="N9" s="218"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="218"/>
-      <c r="Q9" s="218"/>
-      <c r="R9" s="218"/>
-      <c r="S9" s="218"/>
-      <c r="T9" s="218"/>
-      <c r="U9" s="218"/>
-      <c r="V9" s="218"/>
-      <c r="W9" s="218"/>
-      <c r="X9" s="218"/>
-      <c r="Y9" s="218"/>
-      <c r="Z9" s="218"/>
-      <c r="AA9" s="218"/>
-      <c r="AB9" s="218"/>
-    </row>
-    <row r="10" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A10" s="211"/>
-      <c r="B10" s="212" t="s">
+      <c r="L9" s="152"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="140"/>
+    </row>
+    <row r="10" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A10" s="150"/>
+      <c r="B10" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="213" t="s">
+      <c r="C10" s="155" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="224" t="s">
+      <c r="E10" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="214" t="s">
+      <c r="F10" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="214">
+      <c r="G10" s="152">
         <v>1</v>
       </c>
-      <c r="H10" s="215">
+      <c r="H10" s="161">
         <f>105.18*$I$36</f>
         <v>144891.76079999999</v>
       </c>
-      <c r="I10" s="216">
+      <c r="I10" s="162">
         <v>0</v>
       </c>
-      <c r="J10" s="215">
+      <c r="J10" s="161">
         <f>32.95*$I$36</f>
         <v>45390.601999999999</v>
       </c>
-      <c r="K10" s="206">
+      <c r="K10" s="158">
         <f t="shared" si="0"/>
         <v>190282.3628</v>
       </c>
-      <c r="L10" s="214"/>
-      <c r="M10" s="218"/>
-      <c r="N10" s="218"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="218"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="218"/>
-      <c r="S10" s="218"/>
-      <c r="T10" s="218"/>
-      <c r="U10" s="218"/>
-      <c r="V10" s="218"/>
-      <c r="W10" s="218"/>
-      <c r="X10" s="218"/>
-      <c r="Y10" s="218"/>
-      <c r="Z10" s="218"/>
-      <c r="AA10" s="218"/>
-      <c r="AB10" s="218"/>
-    </row>
-    <row r="11" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A11" s="211"/>
-      <c r="B11" s="212" t="s">
+      <c r="L10" s="152"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="140"/>
+      <c r="AB10" s="140"/>
+    </row>
+    <row r="11" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A11" s="150"/>
+      <c r="B11" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="213" t="s">
+      <c r="C11" s="155" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="219" t="s">
+      <c r="E11" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="219" t="s">
+      <c r="F11" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="214">
+      <c r="G11" s="152">
         <v>1</v>
       </c>
-      <c r="H11" s="215">
+      <c r="H11" s="161">
         <v>22000</v>
       </c>
-      <c r="I11" s="216">
+      <c r="I11" s="162">
         <v>0</v>
       </c>
-      <c r="J11" s="215">
+      <c r="J11" s="161">
         <v>3300</v>
       </c>
-      <c r="K11" s="206">
+      <c r="K11" s="158">
         <f t="shared" si="0"/>
         <v>25300</v>
       </c>
-      <c r="L11" s="214"/>
-      <c r="M11" s="218"/>
-      <c r="N11" s="218"/>
-      <c r="O11" s="218"/>
-      <c r="P11" s="218"/>
-      <c r="Q11" s="218"/>
-      <c r="R11" s="218"/>
-      <c r="S11" s="218"/>
-      <c r="T11" s="218"/>
-      <c r="U11" s="218"/>
-      <c r="V11" s="218"/>
-      <c r="W11" s="218"/>
-      <c r="X11" s="218"/>
-      <c r="Y11" s="218"/>
-      <c r="Z11" s="218"/>
-      <c r="AA11" s="218"/>
-      <c r="AB11" s="218"/>
-    </row>
-    <row r="12" spans="1:28" s="219" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A12" s="211"/>
-      <c r="B12" s="212" t="s">
+      <c r="L11" s="152"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="140"/>
+    </row>
+    <row r="12" spans="1:28" s="144" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A12" s="150"/>
+      <c r="B12" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="168" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="225" t="s">
+      <c r="E12" s="176" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="214" t="s">
+      <c r="F12" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="G12" s="214">
+      <c r="G12" s="152">
         <v>1</v>
       </c>
-      <c r="H12" s="226">
+      <c r="H12" s="163">
         <v>7700</v>
       </c>
-      <c r="I12" s="216">
+      <c r="I12" s="162">
         <v>0</v>
       </c>
-      <c r="J12" s="215">
+      <c r="J12" s="161">
         <v>3000</v>
       </c>
-      <c r="K12" s="206">
+      <c r="K12" s="158">
         <f t="shared" si="0"/>
         <v>10700</v>
       </c>
-      <c r="L12" s="214"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="218"/>
-      <c r="Q12" s="218"/>
-      <c r="R12" s="218"/>
-      <c r="S12" s="218"/>
-      <c r="T12" s="218"/>
-      <c r="U12" s="218"/>
-      <c r="V12" s="218"/>
-      <c r="W12" s="218"/>
-      <c r="X12" s="218"/>
-      <c r="Y12" s="218"/>
-      <c r="Z12" s="218"/>
-      <c r="AA12" s="218"/>
-      <c r="AB12" s="218"/>
-    </row>
-    <row r="13" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A13" s="211"/>
-      <c r="B13" s="212" t="s">
+      <c r="L12" s="152"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="140"/>
+      <c r="U12" s="140"/>
+      <c r="V12" s="140"/>
+      <c r="W12" s="140"/>
+      <c r="X12" s="140"/>
+      <c r="Y12" s="140"/>
+      <c r="Z12" s="140"/>
+      <c r="AA12" s="140"/>
+      <c r="AB12" s="140"/>
+    </row>
+    <row r="13" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A13" s="150"/>
+      <c r="B13" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="227" t="s">
+      <c r="C13" s="180" t="s">
         <v>121</v>
       </c>
       <c r="D13" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="225" t="s">
+      <c r="E13" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="228" t="s">
+      <c r="F13" s="178" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="214">
+      <c r="G13" s="152">
         <v>1</v>
       </c>
-      <c r="H13" s="226">
+      <c r="H13" s="163">
         <v>7020</v>
       </c>
-      <c r="I13" s="216">
+      <c r="I13" s="162">
         <v>0</v>
       </c>
-      <c r="J13" s="215">
+      <c r="J13" s="161">
         <v>0</v>
       </c>
-      <c r="K13" s="206">
+      <c r="K13" s="158">
         <f t="shared" si="0"/>
         <v>7020</v>
       </c>
-      <c r="L13" s="214"/>
-      <c r="M13" s="218"/>
-      <c r="N13" s="218"/>
-      <c r="O13" s="218"/>
-      <c r="P13" s="218"/>
-      <c r="Q13" s="218"/>
-      <c r="R13" s="218"/>
-      <c r="S13" s="218"/>
-      <c r="T13" s="218"/>
-      <c r="U13" s="218"/>
-      <c r="V13" s="218"/>
-      <c r="W13" s="218"/>
-      <c r="X13" s="218"/>
-      <c r="Y13" s="218"/>
-      <c r="Z13" s="218"/>
-      <c r="AA13" s="218"/>
-      <c r="AB13" s="218"/>
-    </row>
-    <row r="14" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A14" s="211"/>
-      <c r="B14" s="229" t="s">
+      <c r="L13" s="152"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="Z13" s="140"/>
+      <c r="AA13" s="140"/>
+      <c r="AB13" s="140"/>
+    </row>
+    <row r="14" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A14" s="150"/>
+      <c r="B14" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="227" t="s">
+      <c r="C14" s="180" t="s">
         <v>125</v>
       </c>
       <c r="D14" s="160" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="225" t="s">
+      <c r="E14" s="176" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="228" t="s">
+      <c r="F14" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="214">
+      <c r="G14" s="152">
         <v>1</v>
       </c>
-      <c r="H14" s="226">
+      <c r="H14" s="163">
         <v>2530</v>
       </c>
-      <c r="I14" s="216">
+      <c r="I14" s="162">
         <v>0</v>
       </c>
-      <c r="J14" s="215">
+      <c r="J14" s="161">
         <v>4400</v>
       </c>
-      <c r="K14" s="206">
+      <c r="K14" s="158">
         <f t="shared" si="0"/>
         <v>6930</v>
       </c>
-      <c r="L14" s="214"/>
-      <c r="M14" s="218"/>
-      <c r="N14" s="218"/>
-      <c r="O14" s="218"/>
-      <c r="P14" s="218"/>
-      <c r="Q14" s="218"/>
-      <c r="R14" s="218"/>
-      <c r="S14" s="218"/>
-      <c r="T14" s="218"/>
-      <c r="U14" s="218"/>
-      <c r="V14" s="218"/>
-      <c r="W14" s="218"/>
-      <c r="X14" s="218"/>
-      <c r="Y14" s="218"/>
-      <c r="Z14" s="218"/>
-      <c r="AA14" s="218"/>
-      <c r="AB14" s="218"/>
-    </row>
-    <row r="15" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A15" s="211"/>
-      <c r="B15" s="230"/>
-      <c r="C15" s="231" t="s">
+      <c r="L14" s="152"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="140"/>
+      <c r="O14" s="140"/>
+      <c r="P14" s="140"/>
+      <c r="Q14" s="140"/>
+      <c r="R14" s="140"/>
+      <c r="S14" s="140"/>
+      <c r="T14" s="140"/>
+      <c r="U14" s="140"/>
+      <c r="V14" s="140"/>
+      <c r="W14" s="140"/>
+      <c r="X14" s="140"/>
+      <c r="Y14" s="140"/>
+      <c r="Z14" s="140"/>
+      <c r="AA14" s="140"/>
+      <c r="AB14" s="140"/>
+    </row>
+    <row r="15" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A15" s="150"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="156" t="s">
         <v>72</v>
       </c>
       <c r="D15" s="160" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="232" t="s">
+      <c r="E15" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="228" t="s">
+      <c r="F15" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="G15" s="214">
+      <c r="G15" s="152">
         <v>1</v>
       </c>
-      <c r="H15" s="226">
+      <c r="H15" s="163">
         <v>3190</v>
       </c>
-      <c r="I15" s="216">
+      <c r="I15" s="162">
         <v>0</v>
       </c>
-      <c r="J15" s="220">
+      <c r="J15" s="174">
         <v>0</v>
       </c>
-      <c r="K15" s="206">
+      <c r="K15" s="158">
         <f>H15*G15+H15*I15*G15+J14</f>
         <v>7590</v>
       </c>
-      <c r="L15" s="214"/>
-      <c r="M15" s="218"/>
-      <c r="N15" s="218"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="218"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="218"/>
-      <c r="S15" s="218"/>
-      <c r="T15" s="218"/>
-      <c r="U15" s="218"/>
-      <c r="V15" s="218"/>
-      <c r="W15" s="218"/>
-      <c r="X15" s="218"/>
-      <c r="Y15" s="218"/>
-      <c r="Z15" s="218"/>
-      <c r="AA15" s="218"/>
-      <c r="AB15" s="218"/>
-    </row>
-    <row r="16" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A16" s="211"/>
-      <c r="B16" s="233"/>
-      <c r="C16" s="213" t="s">
+      <c r="L15" s="152"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="140"/>
+      <c r="Q15" s="140"/>
+      <c r="R15" s="140"/>
+      <c r="S15" s="140"/>
+      <c r="T15" s="140"/>
+      <c r="U15" s="140"/>
+      <c r="V15" s="140"/>
+      <c r="W15" s="140"/>
+      <c r="X15" s="140"/>
+      <c r="Y15" s="140"/>
+      <c r="Z15" s="140"/>
+      <c r="AA15" s="140"/>
+      <c r="AB15" s="140"/>
+    </row>
+    <row r="16" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A16" s="150"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="234" t="s">
+      <c r="D16" s="181" t="s">
         <v>172</v>
       </c>
-      <c r="E16" s="232" t="s">
+      <c r="E16" s="177" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="228" t="s">
+      <c r="F16" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="214">
+      <c r="G16" s="152">
         <v>1</v>
       </c>
-      <c r="H16" s="226">
+      <c r="H16" s="163">
         <v>8800</v>
       </c>
-      <c r="I16" s="216">
+      <c r="I16" s="162">
         <v>0</v>
       </c>
-      <c r="J16" s="215">
+      <c r="J16" s="161">
         <v>0</v>
       </c>
-      <c r="K16" s="206">
+      <c r="K16" s="158">
         <f t="shared" si="0"/>
         <v>8800</v>
       </c>
-      <c r="L16" s="214"/>
-      <c r="M16" s="218"/>
-      <c r="N16" s="218"/>
-      <c r="O16" s="218"/>
-      <c r="P16" s="218"/>
-      <c r="Q16" s="218"/>
-      <c r="R16" s="218"/>
-      <c r="S16" s="218"/>
-      <c r="T16" s="218"/>
-      <c r="U16" s="218"/>
-      <c r="V16" s="218"/>
-      <c r="W16" s="218"/>
-      <c r="X16" s="218"/>
-      <c r="Y16" s="218"/>
-      <c r="Z16" s="218"/>
-      <c r="AA16" s="218"/>
-      <c r="AB16" s="218"/>
-    </row>
-    <row r="17" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A17" s="211"/>
-      <c r="B17" s="235" t="s">
+      <c r="L16" s="152"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="140"/>
+      <c r="Q16" s="140"/>
+      <c r="R16" s="140"/>
+      <c r="S16" s="140"/>
+      <c r="T16" s="140"/>
+      <c r="U16" s="140"/>
+      <c r="V16" s="140"/>
+      <c r="W16" s="140"/>
+      <c r="X16" s="140"/>
+      <c r="Y16" s="140"/>
+      <c r="Z16" s="140"/>
+      <c r="AA16" s="140"/>
+      <c r="AB16" s="140"/>
+    </row>
+    <row r="17" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A17" s="150"/>
+      <c r="B17" s="182" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="236" t="s">
+      <c r="C17" s="183" t="s">
         <v>166</v>
       </c>
       <c r="D17" s="160" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="232" t="s">
+      <c r="E17" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="F17" s="237" t="s">
+      <c r="F17" s="184" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="212">
+      <c r="G17" s="151">
         <v>1</v>
       </c>
-      <c r="H17" s="226">
+      <c r="H17" s="163">
         <v>2200</v>
       </c>
-      <c r="I17" s="216">
+      <c r="I17" s="162">
         <v>0.1</v>
       </c>
-      <c r="J17" s="215">
+      <c r="J17" s="161">
         <v>3300</v>
       </c>
-      <c r="K17" s="206">
+      <c r="K17" s="158">
         <f>H17*G17+H17*I17*G17+J17</f>
         <v>5720</v>
       </c>
-      <c r="L17" s="214"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="218"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="218"/>
-      <c r="Q17" s="218"/>
-      <c r="R17" s="218"/>
-      <c r="S17" s="218"/>
-      <c r="T17" s="218"/>
-      <c r="U17" s="218"/>
-      <c r="V17" s="218"/>
-      <c r="W17" s="218"/>
-      <c r="X17" s="218"/>
-      <c r="Y17" s="218"/>
-      <c r="Z17" s="218"/>
-      <c r="AA17" s="218"/>
-      <c r="AB17" s="218"/>
-    </row>
-    <row r="18" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A18" s="211"/>
-      <c r="B18" s="238" t="s">
+      <c r="L17" s="152"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="140"/>
+      <c r="P17" s="140"/>
+      <c r="Q17" s="140"/>
+      <c r="R17" s="140"/>
+      <c r="S17" s="140"/>
+      <c r="T17" s="140"/>
+      <c r="U17" s="140"/>
+      <c r="V17" s="140"/>
+      <c r="W17" s="140"/>
+      <c r="X17" s="140"/>
+      <c r="Y17" s="140"/>
+      <c r="Z17" s="140"/>
+      <c r="AA17" s="140"/>
+      <c r="AB17" s="140"/>
+    </row>
+    <row r="18" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A18" s="150"/>
+      <c r="B18" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="239" t="s">
+      <c r="C18" s="186" t="s">
         <v>154</v>
       </c>
       <c r="D18" s="160" t="s">
         <v>158</v>
       </c>
-      <c r="E18" s="232" t="s">
+      <c r="E18" s="177" t="s">
         <v>153</v>
       </c>
-      <c r="F18" s="237" t="s">
+      <c r="F18" s="184" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="212">
+      <c r="G18" s="151">
         <v>1</v>
       </c>
-      <c r="H18" s="226">
+      <c r="H18" s="163">
         <v>4200</v>
       </c>
-      <c r="I18" s="216">
+      <c r="I18" s="162">
         <v>0.1</v>
       </c>
-      <c r="J18" s="215">
+      <c r="J18" s="161">
         <v>0</v>
       </c>
-      <c r="K18" s="206">
+      <c r="K18" s="158">
         <f>H18*G18+H18*I18*G18+J18</f>
         <v>4620</v>
       </c>
-      <c r="L18" s="214"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
-      <c r="Q18" s="218"/>
-      <c r="R18" s="218"/>
-      <c r="S18" s="218"/>
-      <c r="T18" s="218"/>
-      <c r="U18" s="218"/>
-      <c r="V18" s="218"/>
-      <c r="W18" s="218"/>
-      <c r="X18" s="218"/>
-      <c r="Y18" s="218"/>
-      <c r="Z18" s="218"/>
-      <c r="AA18" s="218"/>
-      <c r="AB18" s="218"/>
-    </row>
-    <row r="19" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A19" s="211"/>
-      <c r="B19" s="225" t="s">
+      <c r="L18" s="152"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="140"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="140"/>
+      <c r="V18" s="140"/>
+      <c r="W18" s="140"/>
+      <c r="X18" s="140"/>
+      <c r="Y18" s="140"/>
+      <c r="Z18" s="140"/>
+      <c r="AA18" s="140"/>
+      <c r="AB18" s="140"/>
+    </row>
+    <row r="19" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A19" s="150"/>
+      <c r="B19" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="240" t="s">
+      <c r="C19" s="187" t="s">
         <v>155</v>
       </c>
       <c r="D19" s="160" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="232" t="s">
+      <c r="E19" s="177" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="237" t="s">
+      <c r="F19" s="184" t="s">
         <v>165</v>
       </c>
-      <c r="G19" s="212">
+      <c r="G19" s="151">
         <v>1</v>
       </c>
-      <c r="H19" s="226">
+      <c r="H19" s="163">
         <v>2000</v>
       </c>
-      <c r="I19" s="216">
+      <c r="I19" s="162">
         <v>0.1</v>
       </c>
-      <c r="J19" s="215">
+      <c r="J19" s="161">
         <v>0</v>
       </c>
-      <c r="K19" s="206">
+      <c r="K19" s="158">
         <f>H19*G19+H19*I19*G19+J19</f>
         <v>2200</v>
       </c>
-      <c r="L19" s="214"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="218"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="218"/>
-      <c r="Q19" s="218"/>
-      <c r="R19" s="218"/>
-      <c r="S19" s="218"/>
-      <c r="T19" s="218"/>
-      <c r="U19" s="218"/>
-      <c r="V19" s="218"/>
-      <c r="W19" s="218"/>
-      <c r="X19" s="218"/>
-      <c r="Y19" s="218"/>
-      <c r="Z19" s="218"/>
-      <c r="AA19" s="218"/>
-      <c r="AB19" s="218"/>
-    </row>
-    <row r="20" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A20" s="211"/>
-      <c r="B20" s="225" t="s">
+      <c r="L19" s="152"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="140"/>
+      <c r="V19" s="140"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="140"/>
+      <c r="Z19" s="140"/>
+      <c r="AA19" s="140"/>
+      <c r="AB19" s="140"/>
+    </row>
+    <row r="20" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A20" s="150"/>
+      <c r="B20" s="176" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="239" t="s">
+      <c r="C20" s="186" t="s">
         <v>156</v>
       </c>
       <c r="D20" s="160" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="232" t="s">
+      <c r="E20" s="177" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="241" t="s">
+      <c r="F20" s="179" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="212">
+      <c r="G20" s="151">
         <v>1</v>
       </c>
-      <c r="H20" s="226">
+      <c r="H20" s="163">
         <v>2800</v>
       </c>
-      <c r="I20" s="216">
+      <c r="I20" s="162">
         <v>0.1</v>
       </c>
-      <c r="J20" s="215">
+      <c r="J20" s="161">
         <v>0</v>
       </c>
-      <c r="K20" s="206">
+      <c r="K20" s="158">
         <f>H20*G20+H20*I20*G20+J20</f>
         <v>3080</v>
       </c>
-      <c r="L20" s="214"/>
-      <c r="M20" s="218"/>
-      <c r="N20" s="218"/>
-      <c r="O20" s="218"/>
-      <c r="P20" s="218"/>
-      <c r="Q20" s="218"/>
-      <c r="R20" s="218"/>
-      <c r="S20" s="218"/>
-      <c r="T20" s="218"/>
-      <c r="U20" s="218"/>
-      <c r="V20" s="218"/>
-      <c r="W20" s="218"/>
-      <c r="X20" s="218"/>
-      <c r="Y20" s="218"/>
-      <c r="Z20" s="218"/>
-      <c r="AA20" s="218"/>
-      <c r="AB20" s="218"/>
-    </row>
-    <row r="21" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A21" s="211"/>
-      <c r="B21" s="242" t="s">
+      <c r="L20" s="152"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="140"/>
+      <c r="O20" s="140"/>
+      <c r="P20" s="140"/>
+      <c r="Q20" s="140"/>
+      <c r="R20" s="140"/>
+      <c r="S20" s="140"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="140"/>
+      <c r="V20" s="140"/>
+      <c r="W20" s="140"/>
+      <c r="X20" s="140"/>
+      <c r="Y20" s="140"/>
+      <c r="Z20" s="140"/>
+      <c r="AA20" s="140"/>
+      <c r="AB20" s="140"/>
+    </row>
+    <row r="21" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A21" s="150"/>
+      <c r="B21" s="213" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="221" t="s">
+      <c r="C21" s="168" t="s">
         <v>138</v>
       </c>
       <c r="D21" s="160" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="232" t="s">
+      <c r="E21" s="177" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="214" t="s">
+      <c r="F21" s="152" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="214">
+      <c r="G21" s="152">
         <v>2</v>
       </c>
-      <c r="H21" s="226">
+      <c r="H21" s="163">
         <v>3600</v>
       </c>
-      <c r="I21" s="216">
+      <c r="I21" s="162">
         <v>0.1</v>
       </c>
-      <c r="J21" s="215">
+      <c r="J21" s="161">
         <v>0</v>
       </c>
-      <c r="K21" s="206">
+      <c r="K21" s="158">
         <f>H21*G21+H21*I21*G21+J21</f>
         <v>7920</v>
       </c>
-      <c r="L21" s="214"/>
-      <c r="M21" s="218"/>
-      <c r="N21" s="218"/>
-      <c r="O21" s="218"/>
-      <c r="P21" s="218"/>
-      <c r="Q21" s="218"/>
-      <c r="R21" s="218"/>
-      <c r="S21" s="218"/>
-      <c r="T21" s="218"/>
-      <c r="U21" s="218"/>
-      <c r="V21" s="218"/>
-      <c r="W21" s="218"/>
-      <c r="X21" s="218"/>
-      <c r="Y21" s="218"/>
-      <c r="Z21" s="218"/>
-      <c r="AA21" s="218"/>
-      <c r="AB21" s="218"/>
-    </row>
-    <row r="22" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A22" s="211"/>
-      <c r="B22" s="243"/>
-      <c r="C22" s="221" t="s">
+      <c r="L21" s="152"/>
+      <c r="M21" s="140"/>
+      <c r="N21" s="140"/>
+      <c r="O21" s="140"/>
+      <c r="P21" s="140"/>
+      <c r="Q21" s="140"/>
+      <c r="R21" s="140"/>
+      <c r="S21" s="140"/>
+      <c r="T21" s="140"/>
+      <c r="U21" s="140"/>
+      <c r="V21" s="140"/>
+      <c r="W21" s="140"/>
+      <c r="X21" s="140"/>
+      <c r="Y21" s="140"/>
+      <c r="Z21" s="140"/>
+      <c r="AA21" s="140"/>
+      <c r="AB21" s="140"/>
+    </row>
+    <row r="22" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A22" s="150"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="168" t="s">
         <v>141</v>
       </c>
       <c r="D22" s="160" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="244" t="s">
+      <c r="E22" s="188" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="219" t="s">
+      <c r="F22" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="214">
+      <c r="G22" s="152">
         <v>1</v>
       </c>
-      <c r="H22" s="226">
+      <c r="H22" s="163">
         <v>5600</v>
       </c>
-      <c r="I22" s="216">
+      <c r="I22" s="162">
         <v>0.1</v>
       </c>
-      <c r="J22" s="215">
+      <c r="J22" s="161">
         <v>0</v>
       </c>
-      <c r="K22" s="206">
+      <c r="K22" s="158">
         <f t="shared" ref="K22:K24" si="1">H22*G22+H22*I22*G22+J22</f>
         <v>6160</v>
       </c>
-      <c r="L22" s="214"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="218"/>
-      <c r="S22" s="218"/>
-      <c r="T22" s="218"/>
-      <c r="U22" s="218"/>
-      <c r="V22" s="218"/>
-      <c r="W22" s="218"/>
-      <c r="X22" s="218"/>
-      <c r="Y22" s="218"/>
-      <c r="Z22" s="218"/>
-      <c r="AA22" s="218"/>
-      <c r="AB22" s="218"/>
-    </row>
-    <row r="23" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A23" s="211"/>
-      <c r="B23" s="245" t="s">
+      <c r="L22" s="152"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="140"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="140"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="140"/>
+      <c r="S22" s="140"/>
+      <c r="T22" s="140"/>
+      <c r="U22" s="140"/>
+      <c r="V22" s="140"/>
+      <c r="W22" s="140"/>
+      <c r="X22" s="140"/>
+      <c r="Y22" s="140"/>
+      <c r="Z22" s="140"/>
+      <c r="AA22" s="140"/>
+      <c r="AB22" s="140"/>
+    </row>
+    <row r="23" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A23" s="150"/>
+      <c r="B23" s="215" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="221" t="s">
+      <c r="C23" s="168" t="s">
         <v>139</v>
       </c>
       <c r="D23" s="160" t="s">
         <v>146</v>
       </c>
-      <c r="E23" s="232" t="s">
+      <c r="E23" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="F23" s="214" t="s">
+      <c r="F23" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="214">
+      <c r="G23" s="152">
         <v>1</v>
       </c>
-      <c r="H23" s="226">
+      <c r="H23" s="163">
         <v>3400</v>
       </c>
-      <c r="I23" s="216">
+      <c r="I23" s="162">
         <v>0.1</v>
       </c>
-      <c r="J23" s="215">
+      <c r="J23" s="161">
         <v>0</v>
       </c>
-      <c r="K23" s="206">
+      <c r="K23" s="158">
         <f t="shared" si="1"/>
         <v>3740</v>
       </c>
-      <c r="L23" s="214"/>
-      <c r="M23" s="218"/>
-      <c r="N23" s="218"/>
-      <c r="O23" s="218"/>
-      <c r="P23" s="218"/>
-      <c r="Q23" s="218"/>
-      <c r="R23" s="218"/>
-      <c r="S23" s="218"/>
-      <c r="T23" s="218"/>
-      <c r="U23" s="218"/>
-      <c r="V23" s="218"/>
-      <c r="W23" s="218"/>
-      <c r="X23" s="218"/>
-      <c r="Y23" s="218"/>
-      <c r="Z23" s="218"/>
-      <c r="AA23" s="218"/>
-      <c r="AB23" s="218"/>
-    </row>
-    <row r="24" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A24" s="211"/>
-      <c r="B24" s="246"/>
-      <c r="C24" s="221" t="s">
+      <c r="L23" s="152"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="140"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="140"/>
+      <c r="Q23" s="140"/>
+      <c r="R23" s="140"/>
+      <c r="S23" s="140"/>
+      <c r="T23" s="140"/>
+      <c r="U23" s="140"/>
+      <c r="V23" s="140"/>
+      <c r="W23" s="140"/>
+      <c r="X23" s="140"/>
+      <c r="Y23" s="140"/>
+      <c r="Z23" s="140"/>
+      <c r="AA23" s="140"/>
+      <c r="AB23" s="140"/>
+    </row>
+    <row r="24" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A24" s="150"/>
+      <c r="B24" s="216"/>
+      <c r="C24" s="168" t="s">
         <v>140</v>
       </c>
       <c r="D24" s="160" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="232" t="s">
+      <c r="E24" s="177" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="214" t="s">
+      <c r="F24" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="G24" s="214">
+      <c r="G24" s="152">
         <v>1</v>
       </c>
-      <c r="H24" s="226">
+      <c r="H24" s="163">
         <v>5400</v>
       </c>
-      <c r="I24" s="216">
+      <c r="I24" s="162">
         <v>0.1</v>
       </c>
-      <c r="J24" s="215">
+      <c r="J24" s="161">
         <v>0</v>
       </c>
-      <c r="K24" s="206">
+      <c r="K24" s="158">
         <f t="shared" si="1"/>
         <v>5940</v>
       </c>
-      <c r="L24" s="214"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="218"/>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="218"/>
-      <c r="S24" s="218"/>
-      <c r="T24" s="218"/>
-      <c r="U24" s="218"/>
-      <c r="V24" s="218"/>
-      <c r="W24" s="218"/>
-      <c r="X24" s="218"/>
-      <c r="Y24" s="218"/>
-      <c r="Z24" s="218"/>
-      <c r="AA24" s="218"/>
-      <c r="AB24" s="218"/>
-    </row>
-    <row r="25" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A25" s="211"/>
-      <c r="B25" s="229" t="s">
+      <c r="L24" s="152"/>
+      <c r="M24" s="140"/>
+      <c r="N24" s="140"/>
+      <c r="O24" s="140"/>
+      <c r="P24" s="140"/>
+      <c r="Q24" s="140"/>
+      <c r="R24" s="140"/>
+      <c r="S24" s="140"/>
+      <c r="T24" s="140"/>
+      <c r="U24" s="140"/>
+      <c r="V24" s="140"/>
+      <c r="W24" s="140"/>
+      <c r="X24" s="140"/>
+      <c r="Y24" s="140"/>
+      <c r="Z24" s="140"/>
+      <c r="AA24" s="140"/>
+      <c r="AB24" s="140"/>
+    </row>
+    <row r="25" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A25" s="150"/>
+      <c r="B25" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="227" t="s">
+      <c r="C25" s="180" t="s">
         <v>131</v>
       </c>
       <c r="D25" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="E25" s="232" t="s">
+      <c r="E25" s="177" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="214" t="s">
+      <c r="F25" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="214">
+      <c r="G25" s="152">
         <v>12</v>
       </c>
-      <c r="H25" s="226">
+      <c r="H25" s="163">
         <v>860</v>
       </c>
-      <c r="I25" s="216">
+      <c r="I25" s="162">
         <v>0.1</v>
       </c>
-      <c r="J25" s="215">
+      <c r="J25" s="161">
         <v>0</v>
       </c>
-      <c r="K25" s="206">
+      <c r="K25" s="158">
         <f>H25*G25+H25*I25*G25+J25</f>
         <v>11352</v>
       </c>
-      <c r="L25" s="214"/>
-      <c r="M25" s="218"/>
-      <c r="N25" s="218"/>
-      <c r="O25" s="218"/>
-      <c r="P25" s="218"/>
-      <c r="Q25" s="218"/>
-      <c r="R25" s="218"/>
-      <c r="S25" s="218"/>
-      <c r="T25" s="218"/>
-      <c r="U25" s="218"/>
-      <c r="V25" s="218"/>
-      <c r="W25" s="218"/>
-      <c r="X25" s="218"/>
-      <c r="Y25" s="218"/>
-      <c r="Z25" s="218"/>
-      <c r="AA25" s="218"/>
-      <c r="AB25" s="218"/>
-    </row>
-    <row r="26" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A26" s="211"/>
-      <c r="B26" s="233"/>
-      <c r="C26" s="221" t="s">
+      <c r="L25" s="152"/>
+      <c r="M25" s="140"/>
+      <c r="N25" s="140"/>
+      <c r="O25" s="140"/>
+      <c r="P25" s="140"/>
+      <c r="Q25" s="140"/>
+      <c r="R25" s="140"/>
+      <c r="S25" s="140"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="140"/>
+      <c r="V25" s="140"/>
+      <c r="W25" s="140"/>
+      <c r="X25" s="140"/>
+      <c r="Y25" s="140"/>
+      <c r="Z25" s="140"/>
+      <c r="AA25" s="140"/>
+      <c r="AB25" s="140"/>
+    </row>
+    <row r="26" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A26" s="150"/>
+      <c r="B26" s="190"/>
+      <c r="C26" s="168" t="s">
         <v>132</v>
       </c>
       <c r="D26" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="232" t="s">
+      <c r="E26" s="177" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="241" t="s">
+      <c r="F26" s="179" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="214">
+      <c r="G26" s="152">
         <v>3</v>
       </c>
-      <c r="H26" s="226">
+      <c r="H26" s="163">
         <v>960</v>
       </c>
-      <c r="I26" s="216">
+      <c r="I26" s="162">
         <v>0.1</v>
       </c>
-      <c r="J26" s="215">
+      <c r="J26" s="161">
         <v>0</v>
       </c>
-      <c r="K26" s="206">
+      <c r="K26" s="158">
         <f t="shared" si="0"/>
         <v>3168</v>
       </c>
-      <c r="L26" s="226"/>
-      <c r="M26" s="218"/>
-      <c r="N26" s="218"/>
-      <c r="O26" s="218"/>
-      <c r="P26" s="218"/>
-      <c r="Q26" s="218"/>
-      <c r="R26" s="218"/>
-      <c r="S26" s="218"/>
-      <c r="T26" s="218"/>
-      <c r="U26" s="218"/>
-      <c r="V26" s="218"/>
-      <c r="W26" s="218"/>
-      <c r="X26" s="218"/>
-      <c r="Y26" s="218"/>
-      <c r="Z26" s="218"/>
-      <c r="AA26" s="218"/>
-      <c r="AB26" s="218"/>
-    </row>
-    <row r="27" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A27" s="211"/>
-      <c r="B27" s="214" t="s">
+      <c r="L26" s="163"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="140"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="140"/>
+      <c r="V26" s="140"/>
+      <c r="W26" s="140"/>
+      <c r="X26" s="140"/>
+      <c r="Y26" s="140"/>
+      <c r="Z26" s="140"/>
+      <c r="AA26" s="140"/>
+      <c r="AB26" s="140"/>
+    </row>
+    <row r="27" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A27" s="150"/>
+      <c r="B27" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="231" t="s">
+      <c r="C27" s="156" t="s">
         <v>82</v>
       </c>
       <c r="D27" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="225" t="s">
+      <c r="E27" s="176" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="228" t="s">
+      <c r="F27" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="214">
+      <c r="G27" s="152">
         <v>1</v>
       </c>
-      <c r="H27" s="226">
+      <c r="H27" s="163">
         <v>7600</v>
       </c>
-      <c r="I27" s="216">
+      <c r="I27" s="162">
         <v>0</v>
       </c>
-      <c r="J27" s="215">
+      <c r="J27" s="161">
         <v>0</v>
       </c>
-      <c r="K27" s="206">
+      <c r="K27" s="158">
         <f t="shared" si="0"/>
         <v>7600</v>
       </c>
-      <c r="L27" s="214"/>
-      <c r="M27" s="218"/>
-      <c r="N27" s="218"/>
-      <c r="O27" s="218"/>
-      <c r="P27" s="218"/>
-      <c r="Q27" s="218"/>
-      <c r="R27" s="218"/>
-      <c r="S27" s="218"/>
-      <c r="T27" s="218"/>
-      <c r="U27" s="218"/>
-      <c r="V27" s="218"/>
-      <c r="W27" s="218"/>
-      <c r="X27" s="218"/>
-      <c r="Y27" s="218"/>
-      <c r="Z27" s="218"/>
-      <c r="AA27" s="218"/>
-      <c r="AB27" s="218"/>
-    </row>
-    <row r="28" spans="1:28" s="219" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A28" s="211"/>
-      <c r="B28" s="214" t="s">
+      <c r="L27" s="152"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="140"/>
+      <c r="S27" s="140"/>
+      <c r="T27" s="140"/>
+      <c r="U27" s="140"/>
+      <c r="V27" s="140"/>
+      <c r="W27" s="140"/>
+      <c r="X27" s="140"/>
+      <c r="Y27" s="140"/>
+      <c r="Z27" s="140"/>
+      <c r="AA27" s="140"/>
+      <c r="AB27" s="140"/>
+    </row>
+    <row r="28" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A28" s="150"/>
+      <c r="B28" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="231" t="s">
+      <c r="C28" s="156" t="s">
         <v>91</v>
       </c>
       <c r="D28" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="232" t="s">
+      <c r="E28" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="214" t="s">
+      <c r="F28" s="152" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="212">
+      <c r="G28" s="151">
         <v>1</v>
       </c>
-      <c r="H28" s="226">
+      <c r="H28" s="163">
         <v>16400</v>
       </c>
-      <c r="I28" s="216">
+      <c r="I28" s="162">
         <v>0</v>
       </c>
-      <c r="J28" s="215">
+      <c r="J28" s="161">
         <v>0</v>
       </c>
-      <c r="K28" s="206">
+      <c r="K28" s="158">
         <f t="shared" si="0"/>
         <v>16400</v>
       </c>
-      <c r="L28" s="214"/>
-      <c r="M28" s="218"/>
-      <c r="N28" s="218"/>
-      <c r="O28" s="218"/>
-      <c r="P28" s="218"/>
-      <c r="Q28" s="218"/>
-      <c r="R28" s="218"/>
-      <c r="S28" s="218"/>
-      <c r="T28" s="218"/>
-      <c r="U28" s="218"/>
-      <c r="V28" s="218"/>
-      <c r="W28" s="218"/>
-      <c r="X28" s="218"/>
-      <c r="Y28" s="218"/>
-      <c r="Z28" s="218"/>
-      <c r="AA28" s="218"/>
-      <c r="AB28" s="218"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
+      <c r="P28" s="140"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="140"/>
+      <c r="T28" s="140"/>
+      <c r="U28" s="140"/>
+      <c r="V28" s="140"/>
+      <c r="W28" s="140"/>
+      <c r="X28" s="140"/>
+      <c r="Y28" s="140"/>
+      <c r="Z28" s="140"/>
+      <c r="AA28" s="140"/>
+      <c r="AB28" s="140"/>
     </row>
     <row r="29" spans="1:28" s="144" customFormat="1" ht="14.4" customHeight="1">
       <c r="A29" s="150"/>

--- a/김준섭/2024년도 국내 캔위성 대회 구매 품목 리스트 20240705.xlsx
+++ b/김준섭/2024년도 국내 캔위성 대회 구매 품목 리스트 20240705.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjs\Projects\HanaDulSAT\김준섭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjs\OneDrive\문서\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5742D-7207-4962-8076-ED99A03BB9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE1E9DF-76A9-4BBD-846C-DECFBBB44F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="254">
   <si>
     <t>서브시스템</t>
   </si>
@@ -2371,9 +2371,6 @@
     <t>가속도,속도센서</t>
   </si>
   <si>
-    <t>BerryGPS-IMU V4-GPS &amp; 10DOF IMU for Raspberry Pi</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://vctec.co.kr/product/%EB%B2%A0%EB%A6%ACgps-imu-v4-
 %EB%9D%BC%EC%A6%88%EB%B2%A0%EB%A6%AC-%ED%8C%8C%EC%9D%B4%EC%9A%A9-
 gps-%EB%B0%8F-imu-%EB%AA%A8%EB%93%88-berrygps-imu-v4-gps-10dof-imu-forr/
@@ -2748,6 +2745,52 @@
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>구매완료</t>
+  </si>
+  <si>
+    <t>백세인 주문 부탁</t>
+  </si>
+  <si>
+    <t>김영한 주문 부탁</t>
+  </si>
+  <si>
+    <t>BerryGPS-IMU V4-GPS &amp; 10DOF IMU for Raspberry Pi</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>김준섭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매완료</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2757,7 +2800,7 @@
     <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
     <numFmt numFmtId="177" formatCode="_-[$₩-412]* #,##0.00_-;\-[$₩-412]* #,##0.00_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="52">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2768,46 +2811,54 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3111,6 +3162,14 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
@@ -3597,7 +3656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4164,6 +4223,43 @@
     <xf numFmtId="0" fontId="46" fillId="23" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="12" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="12" fillId="23" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4184,12 +4280,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4214,6 +4304,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4245,39 +4341,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4544,8 +4607,8 @@
   </sheetPr>
   <dimension ref="A1:AB1012"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:K16"/>
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4798,14 +4861,14 @@
         <v>115000</v>
       </c>
       <c r="I5" s="85">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J5" s="84">
         <v>0</v>
       </c>
       <c r="K5" s="81">
         <f t="shared" si="0"/>
-        <v>230000</v>
+        <v>253000</v>
       </c>
       <c r="L5" s="77"/>
       <c r="M5" s="65"/>
@@ -5237,7 +5300,7 @@
     </row>
     <row r="14" spans="1:28" s="69" customFormat="1" ht="37.950000000000003" customHeight="1">
       <c r="A14" s="75"/>
-      <c r="B14" s="208" t="s">
+      <c r="B14" s="221" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="110" t="s">
@@ -5288,7 +5351,7 @@
     </row>
     <row r="15" spans="1:28" s="69" customFormat="1" ht="31.05" customHeight="1">
       <c r="A15" s="75"/>
-      <c r="B15" s="209"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="111" t="s">
         <v>141</v>
       </c>
@@ -5337,7 +5400,7 @@
     </row>
     <row r="16" spans="1:28" s="69" customFormat="1" ht="37.950000000000003" customHeight="1">
       <c r="A16" s="75"/>
-      <c r="B16" s="210"/>
+      <c r="B16" s="223"/>
       <c r="C16" s="108" t="s">
         <v>142</v>
       </c>
@@ -5590,7 +5653,7 @@
     </row>
     <row r="21" spans="1:28" s="69" customFormat="1" ht="31.05" customHeight="1">
       <c r="A21" s="75"/>
-      <c r="B21" s="211" t="s">
+      <c r="B21" s="224" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="109" t="s">
@@ -5641,7 +5704,7 @@
     </row>
     <row r="22" spans="1:28" s="69" customFormat="1" ht="28.05" customHeight="1">
       <c r="A22" s="75"/>
-      <c r="B22" s="212"/>
+      <c r="B22" s="225"/>
       <c r="C22" s="109" t="s">
         <v>146</v>
       </c>
@@ -5690,7 +5753,7 @@
     </row>
     <row r="23" spans="1:28" s="69" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="75"/>
-      <c r="B23" s="213" t="s">
+      <c r="B23" s="226" t="s">
         <v>106</v>
       </c>
       <c r="C23" s="109" t="s">
@@ -5741,7 +5804,7 @@
     </row>
     <row r="24" spans="1:28" s="69" customFormat="1" ht="36" customHeight="1">
       <c r="A24" s="75"/>
-      <c r="B24" s="214"/>
+      <c r="B24" s="227"/>
       <c r="C24" s="109" t="s">
         <v>148</v>
       </c>
@@ -5790,7 +5853,7 @@
     </row>
     <row r="25" spans="1:28" s="69" customFormat="1" ht="37.049999999999997" customHeight="1">
       <c r="A25" s="75"/>
-      <c r="B25" s="208" t="s">
+      <c r="B25" s="221" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="110" t="s">
@@ -5841,7 +5904,7 @@
     </row>
     <row r="26" spans="1:28" s="69" customFormat="1" ht="31.05" customHeight="1">
       <c r="A26" s="75"/>
-      <c r="B26" s="210"/>
+      <c r="B26" s="223"/>
       <c r="C26" s="109" t="s">
         <v>150</v>
       </c>
@@ -6163,7 +6226,7 @@
       <c r="J34" s="63"/>
       <c r="K34" s="64">
         <f>SUMPRODUCT(G2:G28,H2:H28,I2:I28)</f>
-        <v>6490</v>
+        <v>29490</v>
       </c>
       <c r="L34" s="61"/>
       <c r="M34" s="61"/>
@@ -6198,7 +6261,7 @@
       <c r="J35" s="63"/>
       <c r="K35" s="64">
         <f>SUM(K32:K34)</f>
-        <v>600030</v>
+        <v>623030</v>
       </c>
       <c r="L35" s="61" t="s">
         <v>22</v>
@@ -35457,10 +35520,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -35473,7 +35536,7 @@
     <col min="7" max="7" width="12.6640625" style="116"/>
     <col min="8" max="8" width="28.77734375" style="116" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="116"/>
-    <col min="10" max="10" width="13.88671875" style="116" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="116" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" style="116"/>
     <col min="12" max="12" width="12.77734375" style="116" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.109375" style="116" bestFit="1" customWidth="1"/>
@@ -35481,11 +35544,11 @@
     <col min="15" max="16384" width="12.6640625" style="116"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.2">
+    <row r="1" spans="1:14" ht="13.2">
       <c r="A1" s="118"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="3" spans="1:13" ht="14.4" thickTop="1" thickBot="1">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="3" spans="1:14" ht="14.4" thickTop="1" thickBot="1">
       <c r="B3" s="119" t="s">
         <v>11</v>
       </c>
@@ -35516,16 +35579,19 @@
       <c r="M3" s="120" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="26.4" customHeight="1" thickTop="1">
+      <c r="N3" s="120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="26.55" customHeight="1" thickTop="1">
       <c r="B4" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="219" t="s">
+      <c r="C4" s="230" t="s">
         <v>153</v>
       </c>
       <c r="D4" s="193" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E4" s="129" t="s">
         <v>154</v>
@@ -35534,10 +35600,10 @@
         <v>56</v>
       </c>
       <c r="G4" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="131" t="s">
         <v>177</v>
-      </c>
-      <c r="H4" s="131" t="s">
-        <v>178</v>
       </c>
       <c r="I4" s="131">
         <v>3</v>
@@ -35554,11 +35620,14 @@
       <c r="M4" s="134">
         <v>68700</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="26.4">
-      <c r="C5" s="217"/>
+      <c r="N4" s="116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="26.4">
+      <c r="C5" s="228"/>
       <c r="D5" s="194" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E5" s="131" t="s">
         <v>155</v>
@@ -35572,8 +35641,8 @@
       <c r="H5" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="246">
-        <v>4</v>
+      <c r="I5" s="211">
+        <v>2</v>
       </c>
       <c r="J5" s="136">
         <v>23500</v>
@@ -35585,11 +35654,15 @@
         <v>0</v>
       </c>
       <c r="M5" s="138">
-        <v>94000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="27" thickBot="1">
-      <c r="C6" s="218"/>
+        <f>J5*I5</f>
+        <v>47000</v>
+      </c>
+      <c r="N5" s="116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="27" thickBot="1">
+      <c r="C6" s="229"/>
       <c r="D6" s="195" t="s">
         <v>158</v>
       </c>
@@ -35600,12 +35673,12 @@
         <v>160</v>
       </c>
       <c r="G6" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="139" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" s="247">
+      <c r="I6" s="212">
         <v>3</v>
       </c>
       <c r="J6" s="141">
@@ -35620,10 +35693,13 @@
       <c r="M6" s="143">
         <v>22800</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="40.200000000000003" thickTop="1">
-      <c r="C7" s="219" t="s">
-        <v>244</v>
+      <c r="N6" s="116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="40.200000000000003" thickTop="1">
+      <c r="C7" s="230" t="s">
+        <v>243</v>
       </c>
       <c r="D7" s="196" t="s">
         <v>161</v>
@@ -35635,12 +35711,12 @@
         <v>163</v>
       </c>
       <c r="G7" s="144" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H7" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="248">
+      <c r="I7" s="213">
         <v>1</v>
       </c>
       <c r="J7" s="146">
@@ -35655,9 +35731,12 @@
       <c r="M7" s="148">
         <v>10700</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="52.8">
-      <c r="C8" s="217"/>
+      <c r="N7" s="116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="52.8">
+      <c r="C8" s="228"/>
       <c r="D8" s="197" t="s">
         <v>164</v>
       </c>
@@ -35668,12 +35747,12 @@
         <v>166</v>
       </c>
       <c r="G8" s="149" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="149" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="149" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="249">
+      <c r="I8" s="214">
         <v>1</v>
       </c>
       <c r="J8" s="151">
@@ -35688,9 +35767,12 @@
       <c r="M8" s="153">
         <v>7020</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="40.200000000000003" thickBot="1">
-      <c r="C9" s="218"/>
+      <c r="N8" s="116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="40.200000000000003" thickBot="1">
+      <c r="C9" s="229"/>
       <c r="D9" s="197" t="s">
         <v>167</v>
       </c>
@@ -35701,12 +35783,12 @@
         <v>169</v>
       </c>
       <c r="G9" s="149" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="H9" s="149" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="249">
+      <c r="I9" s="214">
         <v>1</v>
       </c>
       <c r="J9" s="151">
@@ -35721,62 +35803,68 @@
       <c r="M9" s="153">
         <v>16400</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="80.400000000000006" thickTop="1" thickBot="1">
+      <c r="N9" s="116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="81.599999999999994" thickTop="1" thickBot="1">
       <c r="C10" s="189" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D10" s="198" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="154" t="s">
+      <c r="E10" s="220" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="155" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="155" t="s">
-        <v>172</v>
-      </c>
       <c r="G10" s="154" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" s="154" t="s">
         <v>186</v>
       </c>
-      <c r="H10" s="154" t="s">
-        <v>187</v>
-      </c>
-      <c r="I10" s="250">
+      <c r="I10" s="215">
         <v>2</v>
       </c>
       <c r="J10" s="156">
         <v>115000</v>
       </c>
       <c r="K10" s="157">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L10" s="156">
         <v>0</v>
       </c>
       <c r="M10" s="158">
-        <v>230000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="27.6" thickTop="1" thickBot="1">
+        <v>253000</v>
+      </c>
+      <c r="N10" s="219" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27.6" thickTop="1" thickBot="1">
       <c r="C11" s="190" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D11" s="199" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="159" t="s">
         <v>173</v>
       </c>
-      <c r="E11" s="159" t="s">
+      <c r="F11" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="F11" s="160" t="s">
+      <c r="G11" s="159" t="s">
         <v>175</v>
       </c>
-      <c r="G11" s="159" t="s">
-        <v>176</v>
-      </c>
       <c r="H11" s="159" t="s">
-        <v>176</v>
-      </c>
-      <c r="I11" s="251">
+        <v>175</v>
+      </c>
+      <c r="I11" s="216">
         <v>3</v>
       </c>
       <c r="J11" s="161">
@@ -35791,27 +35879,30 @@
       <c r="M11" s="163">
         <v>31500</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="N11" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="C12" s="190" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D12" s="200" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="G12" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="G12" s="122" t="s">
-        <v>190</v>
-      </c>
       <c r="H12" s="122" t="s">
-        <v>190</v>
-      </c>
-      <c r="I12" s="252">
+        <v>189</v>
+      </c>
+      <c r="I12" s="217">
         <v>1</v>
       </c>
       <c r="J12" s="124">
@@ -35826,27 +35917,30 @@
       <c r="M12" s="126">
         <v>25300</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="27" thickTop="1">
-      <c r="C13" s="219" t="s">
-        <v>248</v>
-      </c>
-      <c r="D13" s="222" t="s">
+      <c r="N12" s="116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="27" thickTop="1">
+      <c r="C13" s="230" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="233" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="164" t="s">
         <v>191</v>
-      </c>
-      <c r="E13" s="164" t="s">
-        <v>192</v>
       </c>
       <c r="F13" s="165" t="s">
         <v>133</v>
       </c>
       <c r="G13" s="164" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="164" t="s">
         <v>193</v>
       </c>
-      <c r="H13" s="164" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="253">
+      <c r="I13" s="218">
         <v>1</v>
       </c>
       <c r="J13" s="166">
@@ -35861,23 +35955,26 @@
       <c r="M13" s="169">
         <v>6930</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="27" customHeight="1">
-      <c r="C14" s="217"/>
-      <c r="D14" s="223"/>
+      <c r="N13" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="27" customHeight="1">
+      <c r="C14" s="228"/>
+      <c r="D14" s="234"/>
       <c r="E14" s="201" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F14" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="243" t="s">
+      <c r="G14" s="208" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="208" t="s">
         <v>196</v>
       </c>
-      <c r="H14" s="243" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="243">
+      <c r="I14" s="208">
         <v>1</v>
       </c>
       <c r="J14" s="171">
@@ -35892,21 +35989,24 @@
       <c r="M14" s="173">
         <v>3190</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="27" thickBot="1">
-      <c r="C15" s="218"/>
-      <c r="D15" s="224"/>
+      <c r="N14" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="27" thickBot="1">
+      <c r="C15" s="229"/>
+      <c r="D15" s="235"/>
       <c r="E15" s="191" t="s">
+        <v>197</v>
+      </c>
+      <c r="F15" s="175" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="174" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="175" t="s">
-        <v>201</v>
-      </c>
-      <c r="G15" s="174" t="s">
+      <c r="H15" s="176" t="s">
         <v>199</v>
-      </c>
-      <c r="H15" s="176" t="s">
-        <v>200</v>
       </c>
       <c r="I15" s="176">
         <v>1</v>
@@ -35923,19 +36023,22 @@
       <c r="M15" s="179">
         <v>8800</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="13.8" thickTop="1">
-      <c r="C16" s="219" t="s">
-        <v>249</v>
+      <c r="N15" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13.8" thickTop="1">
+      <c r="C16" s="230" t="s">
+        <v>248</v>
       </c>
       <c r="D16" s="202" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="192" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="192" t="s">
-        <v>203</v>
-      </c>
       <c r="F16" s="181" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G16" s="180" t="s">
         <v>125</v>
@@ -35958,25 +36061,28 @@
       <c r="M16" s="185">
         <v>5720</v>
       </c>
-    </row>
-    <row r="17" spans="3:13" ht="13.2" customHeight="1">
-      <c r="C17" s="217"/>
+      <c r="N16" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="13.2" customHeight="1">
+      <c r="C17" s="228"/>
       <c r="D17" s="203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F17" s="186" t="s">
-        <v>206</v>
-      </c>
-      <c r="G17" s="244" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="209" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="244" t="s">
+      <c r="H17" s="209" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="244">
+      <c r="I17" s="209">
         <v>1</v>
       </c>
       <c r="J17" s="187">
@@ -35991,25 +36097,28 @@
       <c r="M17" s="187">
         <v>4620</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C18" s="217"/>
+      <c r="N17" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C18" s="228"/>
       <c r="D18" s="203" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="203" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="203" t="s">
+      <c r="F18" s="186" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="209" t="s">
         <v>208</v>
       </c>
-      <c r="F18" s="186" t="s">
-        <v>226</v>
-      </c>
-      <c r="G18" s="244" t="s">
+      <c r="H18" s="209" t="s">
         <v>209</v>
       </c>
-      <c r="H18" s="244" t="s">
-        <v>210</v>
-      </c>
-      <c r="I18" s="244">
+      <c r="I18" s="209">
         <v>1</v>
       </c>
       <c r="J18" s="187">
@@ -36024,25 +36133,28 @@
       <c r="M18" s="187">
         <v>2200</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C19" s="217"/>
+      <c r="N18" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C19" s="228"/>
       <c r="D19" s="203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E19" s="203" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="186" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" s="209" t="s">
         <v>211</v>
       </c>
-      <c r="F19" s="186" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="244" t="s">
+      <c r="H19" s="209" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="244" t="s">
-        <v>213</v>
-      </c>
-      <c r="I19" s="244">
+      <c r="I19" s="209">
         <v>1</v>
       </c>
       <c r="J19" s="187">
@@ -36057,25 +36169,28 @@
       <c r="M19" s="187">
         <v>3080</v>
       </c>
-    </row>
-    <row r="20" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C20" s="217"/>
-      <c r="D20" s="215" t="s">
+      <c r="N19" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C20" s="228"/>
+      <c r="D20" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="203" t="s">
         <v>214</v>
       </c>
-      <c r="E20" s="203" t="s">
+      <c r="F20" s="186" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="209" t="s">
         <v>215</v>
       </c>
-      <c r="F20" s="186" t="s">
-        <v>228</v>
-      </c>
-      <c r="G20" s="244" t="s">
+      <c r="H20" s="209" t="s">
         <v>216</v>
       </c>
-      <c r="H20" s="244" t="s">
-        <v>217</v>
-      </c>
-      <c r="I20" s="244">
+      <c r="I20" s="209">
         <v>2</v>
       </c>
       <c r="J20" s="187">
@@ -36090,23 +36205,26 @@
       <c r="M20" s="187">
         <v>7920</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C21" s="217"/>
-      <c r="D21" s="216"/>
+      <c r="N20" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C21" s="228"/>
+      <c r="D21" s="237"/>
       <c r="E21" s="203" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="186" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" s="209" t="s">
         <v>218</v>
       </c>
-      <c r="F21" s="186" t="s">
-        <v>229</v>
-      </c>
-      <c r="G21" s="244" t="s">
+      <c r="H21" s="209" t="s">
         <v>219</v>
       </c>
-      <c r="H21" s="244" t="s">
-        <v>220</v>
-      </c>
-      <c r="I21" s="244">
+      <c r="I21" s="209">
         <v>2</v>
       </c>
       <c r="J21" s="187">
@@ -36121,25 +36239,28 @@
       <c r="M21" s="187">
         <v>12320</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" ht="15.75" customHeight="1">
-      <c r="C22" s="217"/>
-      <c r="D22" s="215" t="s">
+      <c r="N21" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="15.75" customHeight="1">
+      <c r="C22" s="228"/>
+      <c r="D22" s="236" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="203" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="203" t="s">
+      <c r="F22" s="186" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="209" t="s">
         <v>222</v>
       </c>
-      <c r="F22" s="186" t="s">
-        <v>230</v>
-      </c>
-      <c r="G22" s="244" t="s">
-        <v>223</v>
-      </c>
-      <c r="H22" s="244" t="s">
+      <c r="H22" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="244">
+      <c r="I22" s="209">
         <v>2</v>
       </c>
       <c r="J22" s="187">
@@ -36154,23 +36275,26 @@
       <c r="M22" s="187">
         <v>7480</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C23" s="218"/>
-      <c r="D23" s="216"/>
+      <c r="N22" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C23" s="229"/>
+      <c r="D23" s="237"/>
       <c r="E23" s="203" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="186" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" s="209" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="186" t="s">
-        <v>231</v>
-      </c>
-      <c r="G23" s="244" t="s">
-        <v>225</v>
-      </c>
-      <c r="H23" s="244" t="s">
+      <c r="H23" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="I23" s="244">
+      <c r="I23" s="209">
         <v>2</v>
       </c>
       <c r="J23" s="187">
@@ -36185,27 +36309,30 @@
       <c r="M23" s="187">
         <v>11880</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" ht="15.75" customHeight="1" thickTop="1">
-      <c r="C24" s="217" t="s">
+      <c r="N23" s="116" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="15.75" customHeight="1" thickTop="1">
+      <c r="C24" s="228" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="231" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="204" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="205" t="s">
         <v>239</v>
       </c>
-      <c r="D24" s="220" t="s">
-        <v>232</v>
-      </c>
-      <c r="E24" s="204" t="s">
+      <c r="G24" s="210" t="s">
         <v>233</v>
       </c>
-      <c r="F24" s="205" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="245" t="s">
+      <c r="H24" s="210" t="s">
         <v>234</v>
       </c>
-      <c r="H24" s="245" t="s">
-        <v>235</v>
-      </c>
-      <c r="I24" s="245">
+      <c r="I24" s="210">
         <v>15</v>
       </c>
       <c r="J24" s="206">
@@ -36220,23 +36347,26 @@
       <c r="M24" s="206">
         <v>14190</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C25" s="218"/>
-      <c r="D25" s="221"/>
+      <c r="N24" s="116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C25" s="229"/>
+      <c r="D25" s="232"/>
       <c r="E25" s="204" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="205" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" s="210" t="s">
         <v>236</v>
       </c>
-      <c r="F25" s="205" t="s">
-        <v>240</v>
-      </c>
-      <c r="G25" s="245" t="s">
+      <c r="H25" s="210" t="s">
         <v>237</v>
       </c>
-      <c r="H25" s="245" t="s">
-        <v>238</v>
-      </c>
-      <c r="I25" s="245">
+      <c r="I25" s="210">
         <v>5</v>
       </c>
       <c r="J25" s="206">
@@ -36251,17 +36381,20 @@
       <c r="M25" s="206">
         <v>5280</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" ht="15.75" customHeight="1" thickTop="1">
+      <c r="N25" s="116" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="15.75" customHeight="1" thickTop="1">
       <c r="L26" s="116" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M26" s="127">
         <f>SUM(M4:M25)</f>
-        <v>600030</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" ht="15.75" customHeight="1">
+        <v>576030</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="15.75" customHeight="1">
       <c r="M30" s="128"/>
     </row>
     <row r="33" spans="13:13" ht="15.75" customHeight="1">
@@ -36269,15 +36402,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C16:C23"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -36327,15 +36460,15 @@
       <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="228" t="s">
+      <c r="D1" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="230"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="243"/>
     </row>
     <row r="2" spans="3:10" ht="15.75" customHeight="1">
       <c r="C2" s="3" t="s">
@@ -36374,7 +36507,7 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C4" s="231"/>
+      <c r="C4" s="244"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
@@ -36384,7 +36517,7 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C5" s="232"/>
+      <c r="C5" s="245"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="15"/>
@@ -36394,7 +36527,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C6" s="233"/>
+      <c r="C6" s="246"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19"/>
@@ -36404,7 +36537,7 @@
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C7" s="234"/>
+      <c r="C7" s="247"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="19"/>
@@ -36414,7 +36547,7 @@
       <c r="J7" s="20"/>
     </row>
     <row r="8" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C8" s="232"/>
+      <c r="C8" s="245"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19"/>
@@ -36434,15 +36567,15 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C10" s="235" t="s">
+      <c r="C10" s="248" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
-      <c r="H10" s="226"/>
-      <c r="I10" s="227"/>
+      <c r="D10" s="239"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="239"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="239"/>
+      <c r="I10" s="240"/>
       <c r="J10" s="28">
         <f>SUM(J3:J9)</f>
         <v>0</v>
@@ -36462,15 +36595,15 @@
       <c r="C12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="236" t="s">
+      <c r="D12" s="249" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="226"/>
-      <c r="F12" s="226"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="226"/>
-      <c r="I12" s="226"/>
-      <c r="J12" s="227"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="239"/>
+      <c r="G12" s="239"/>
+      <c r="H12" s="239"/>
+      <c r="I12" s="239"/>
+      <c r="J12" s="240"/>
     </row>
     <row r="13" spans="3:10" ht="15.75" customHeight="1">
       <c r="C13" s="3" t="s">
@@ -36529,15 +36662,15 @@
       <c r="J16" s="47"/>
     </row>
     <row r="17" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C17" s="237" t="s">
+      <c r="C17" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="226"/>
-      <c r="E17" s="226"/>
-      <c r="F17" s="226"/>
-      <c r="G17" s="226"/>
-      <c r="H17" s="226"/>
-      <c r="I17" s="227"/>
+      <c r="D17" s="239"/>
+      <c r="E17" s="239"/>
+      <c r="F17" s="239"/>
+      <c r="G17" s="239"/>
+      <c r="H17" s="239"/>
+      <c r="I17" s="240"/>
       <c r="J17" s="49">
         <f>SUM(J14:J16)</f>
         <v>0</v>
@@ -36587,15 +36720,15 @@
       <c r="C22" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="236" t="s">
+      <c r="D22" s="249" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="226"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226"/>
-      <c r="H22" s="226"/>
-      <c r="I22" s="226"/>
-      <c r="J22" s="227"/>
+      <c r="E22" s="239"/>
+      <c r="F22" s="239"/>
+      <c r="G22" s="239"/>
+      <c r="H22" s="239"/>
+      <c r="I22" s="239"/>
+      <c r="J22" s="240"/>
     </row>
     <row r="23" spans="3:11" ht="15.75" customHeight="1">
       <c r="C23" s="3" t="s">
@@ -36635,7 +36768,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C25" s="238"/>
+      <c r="C25" s="251"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="57"/>
@@ -36646,7 +36779,7 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C26" s="232"/>
+      <c r="C26" s="245"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="57"/>
@@ -36657,7 +36790,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C27" s="239"/>
+      <c r="C27" s="252"/>
       <c r="D27" s="44"/>
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
@@ -36668,7 +36801,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C28" s="232"/>
+      <c r="C28" s="245"/>
       <c r="D28" s="58"/>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -36690,9 +36823,9 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C30" s="240"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="242"/>
+      <c r="C30" s="253"/>
+      <c r="D30" s="254"/>
+      <c r="E30" s="255"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="27"/>
@@ -36701,9 +36834,9 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C31" s="232"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
+      <c r="C31" s="245"/>
+      <c r="D31" s="240"/>
+      <c r="E31" s="240"/>
       <c r="F31" s="25"/>
       <c r="G31" s="26"/>
       <c r="H31" s="27"/>
@@ -36723,15 +36856,15 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C33" s="225" t="s">
+      <c r="C33" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="226"/>
-      <c r="E33" s="226"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="226"/>
-      <c r="H33" s="226"/>
-      <c r="I33" s="227"/>
+      <c r="D33" s="239"/>
+      <c r="E33" s="239"/>
+      <c r="F33" s="239"/>
+      <c r="G33" s="239"/>
+      <c r="H33" s="239"/>
+      <c r="I33" s="240"/>
       <c r="J33" s="60">
         <f>SUM(J24:J32)</f>
         <v>0</v>

--- a/김준섭/2024년도 국내 캔위성 대회 구매 품목 리스트 20240705.xlsx
+++ b/김준섭/2024년도 국내 캔위성 대회 구매 품목 리스트 20240705.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjs\Projects\HanaDulSAT\김준섭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C2577C-3F09-4FCA-AC8B-A6422328E70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEB6C44-3C04-40F7-9620-192F066886D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,7 +256,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
-    <author>tc={A09C421C-83CF-4E67-A831-8D681E90E67E}</author>
     <author>tc={C2C1D717-4C12-4B4D-9E7E-07CC306E76D3}</author>
     <author>tc={ED55A12D-39E2-4CCA-8F89-50E1A8755BE2}</author>
     <author>tc={F36DD57C-D144-4D6F-98AB-4C5453BDDFE7}</author>
@@ -264,7 +263,7 @@
     <author>tc={E73160AB-806B-4B22-9AE3-088DB20EB55E}</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{E2991FBD-3660-45AB-BDDE-9878D97650B3}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{F92C8F42-47AB-4EFC-B9C8-778420DCC3DB}">
       <text>
         <r>
           <rPr>
@@ -279,15 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1" shapeId="0" xr:uid="{A09C421C-83CF-4E67-A831-8D681E90E67E}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    디바이스마트 배송비</t>
-      </text>
-    </comment>
-    <comment ref="J6" authorId="2" shapeId="0" xr:uid="{C2C1D717-4C12-4B4D-9E7E-07CC306E76D3}">
+    <comment ref="J6" authorId="1" shapeId="0" xr:uid="{C2C1D717-4C12-4B4D-9E7E-07CC306E76D3}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -295,7 +286,7 @@
     디바이스마트 묶음배송</t>
       </text>
     </comment>
-    <comment ref="J8" authorId="3" shapeId="0" xr:uid="{ED55A12D-39E2-4CCA-8F89-50E1A8755BE2}">
+    <comment ref="J8" authorId="2" shapeId="0" xr:uid="{ED55A12D-39E2-4CCA-8F89-50E1A8755BE2}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -303,7 +294,7 @@
     디바이스마트 묶음배송</t>
       </text>
     </comment>
-    <comment ref="J9" authorId="4" shapeId="0" xr:uid="{F36DD57C-D144-4D6F-98AB-4C5453BDDFE7}">
+    <comment ref="J9" authorId="3" shapeId="0" xr:uid="{F36DD57C-D144-4D6F-98AB-4C5453BDDFE7}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -311,7 +302,7 @@
     디바이스마트 묶음배송</t>
       </text>
     </comment>
-    <comment ref="J27" authorId="5" shapeId="0" xr:uid="{BB04BACA-A0F2-46AE-ABE2-C5DF3C28EF6F}">
+    <comment ref="J27" authorId="4" shapeId="0" xr:uid="{BB04BACA-A0F2-46AE-ABE2-C5DF3C28EF6F}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -319,7 +310,7 @@
     디바이스마트 묶음배송비</t>
       </text>
     </comment>
-    <comment ref="H38" authorId="6" shapeId="0" xr:uid="{E73160AB-806B-4B22-9AE3-088DB20EB55E}">
+    <comment ref="H38" authorId="5" shapeId="0" xr:uid="{E73160AB-806B-4B22-9AE3-088DB20EB55E}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -332,7 +323,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="264">
   <si>
     <t>서브시스템</t>
   </si>
@@ -3066,6 +3057,21 @@
     <t>22pin to 15pin 30cm</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>DFRobot 액세서리 GravityIO Expansion Shield for Arduino</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mouser.kr/ProductDetail/DFRobot/DFR0265?qs=Zcin8yvlhnNXdWoFGEa6gg%3D%3D&amp;mgh=1&amp;utm_id=17722985420&amp;gad_source=1&amp;gclid=CjwKCAjwqf20BhBwEiwAt7dtdWh9hHpwwo4Bh9NHmJ98bvzJniOUj38arwYB93Sq6fm1031JSH1MRBoCpRoQAvD_BwE</t>
+  </si>
+  <si>
+    <t>DFR0265</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3075,7 +3081,7 @@
     <numFmt numFmtId="176" formatCode="[$₩-412]#,##0.00"/>
     <numFmt numFmtId="177" formatCode="_-[$₩-412]* #,##0.00_-;\-[$₩-412]* #,##0.00_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="57">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3455,12 +3461,6 @@
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Nanum Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -4579,6 +4579,18 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4661,18 +4673,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4932,9 +4932,6 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J4" dT="2024-07-06T11:50:27.38" personId="{446C8218-9754-47E2-8101-3DC999542C5D}" id="{A09C421C-83CF-4E67-A831-8D681E90E67E}">
-    <text>디바이스마트 배송비</text>
-  </threadedComment>
   <threadedComment ref="J6" dT="2024-07-06T12:06:56.76" personId="{446C8218-9754-47E2-8101-3DC999542C5D}" id="{C2C1D717-4C12-4B4D-9E7E-07CC306E76D3}">
     <text>디바이스마트 묶음배송</text>
   </threadedComment>
@@ -5654,7 +5651,7 @@
     </row>
     <row r="14" spans="1:28" s="69" customFormat="1" ht="37.950000000000003" customHeight="1">
       <c r="A14" s="75"/>
-      <c r="B14" s="222" t="s">
+      <c r="B14" s="226" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="110" t="s">
@@ -5705,7 +5702,7 @@
     </row>
     <row r="15" spans="1:28" s="69" customFormat="1" ht="31.05" customHeight="1">
       <c r="A15" s="75"/>
-      <c r="B15" s="223"/>
+      <c r="B15" s="227"/>
       <c r="C15" s="111" t="s">
         <v>141</v>
       </c>
@@ -5754,7 +5751,7 @@
     </row>
     <row r="16" spans="1:28" s="69" customFormat="1" ht="37.950000000000003" customHeight="1">
       <c r="A16" s="75"/>
-      <c r="B16" s="224"/>
+      <c r="B16" s="228"/>
       <c r="C16" s="108" t="s">
         <v>142</v>
       </c>
@@ -6007,7 +6004,7 @@
     </row>
     <row r="21" spans="1:28" s="69" customFormat="1" ht="31.05" customHeight="1">
       <c r="A21" s="75"/>
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="229" t="s">
         <v>105</v>
       </c>
       <c r="C21" s="109" t="s">
@@ -6058,7 +6055,7 @@
     </row>
     <row r="22" spans="1:28" s="69" customFormat="1" ht="28.05" customHeight="1">
       <c r="A22" s="75"/>
-      <c r="B22" s="226"/>
+      <c r="B22" s="230"/>
       <c r="C22" s="109" t="s">
         <v>146</v>
       </c>
@@ -6107,7 +6104,7 @@
     </row>
     <row r="23" spans="1:28" s="69" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="75"/>
-      <c r="B23" s="227" t="s">
+      <c r="B23" s="231" t="s">
         <v>106</v>
       </c>
       <c r="C23" s="109" t="s">
@@ -6158,7 +6155,7 @@
     </row>
     <row r="24" spans="1:28" s="69" customFormat="1" ht="36" customHeight="1">
       <c r="A24" s="75"/>
-      <c r="B24" s="228"/>
+      <c r="B24" s="232"/>
       <c r="C24" s="109" t="s">
         <v>148</v>
       </c>
@@ -6207,7 +6204,7 @@
     </row>
     <row r="25" spans="1:28" s="69" customFormat="1" ht="37.049999999999997" customHeight="1">
       <c r="A25" s="75"/>
-      <c r="B25" s="222" t="s">
+      <c r="B25" s="226" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="110" t="s">
@@ -6258,7 +6255,7 @@
     </row>
     <row r="26" spans="1:28" s="69" customFormat="1" ht="31.05" customHeight="1">
       <c r="A26" s="75"/>
-      <c r="B26" s="224"/>
+      <c r="B26" s="228"/>
       <c r="C26" s="109" t="s">
         <v>150</v>
       </c>
@@ -6732,7 +6729,7 @@
       <c r="A39" s="78"/>
       <c r="B39" s="78"/>
       <c r="C39" s="221"/>
-      <c r="D39" s="259"/>
+      <c r="D39" s="224"/>
       <c r="E39" s="61"/>
       <c r="F39" s="61"/>
       <c r="G39" s="61"/>
@@ -35875,7 +35872,7 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -35940,7 +35937,7 @@
       <c r="B4" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="235" t="s">
         <v>153</v>
       </c>
       <c r="D4" s="193" t="s">
@@ -35978,7 +35975,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="26.4">
-      <c r="C5" s="229"/>
+      <c r="C5" s="233"/>
       <c r="D5" s="194" t="s">
         <v>242</v>
       </c>
@@ -36015,7 +36012,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="27" thickBot="1">
-      <c r="C6" s="230"/>
+      <c r="C6" s="234"/>
       <c r="D6" s="195" t="s">
         <v>158</v>
       </c>
@@ -36051,7 +36048,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="40.200000000000003" thickTop="1">
-      <c r="C7" s="231" t="s">
+      <c r="C7" s="235" t="s">
         <v>243</v>
       </c>
       <c r="D7" s="196" t="s">
@@ -36089,7 +36086,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="52.8">
-      <c r="C8" s="229"/>
+      <c r="C8" s="233"/>
       <c r="D8" s="197" t="s">
         <v>164</v>
       </c>
@@ -36125,7 +36122,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="40.200000000000003" thickBot="1">
-      <c r="C9" s="230"/>
+      <c r="C9" s="234"/>
       <c r="D9" s="197" t="s">
         <v>167</v>
       </c>
@@ -36275,10 +36272,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="27" thickTop="1">
-      <c r="C13" s="231" t="s">
+      <c r="C13" s="235" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="234" t="s">
+      <c r="D13" s="238" t="s">
         <v>190</v>
       </c>
       <c r="E13" s="164" t="s">
@@ -36313,8 +36310,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="27" customHeight="1">
-      <c r="C14" s="229"/>
-      <c r="D14" s="235"/>
+      <c r="C14" s="233"/>
+      <c r="D14" s="239"/>
       <c r="E14" s="201" t="s">
         <v>194</v>
       </c>
@@ -36347,8 +36344,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="27" thickBot="1">
-      <c r="C15" s="230"/>
-      <c r="D15" s="236"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="240"/>
       <c r="E15" s="191" t="s">
         <v>197</v>
       </c>
@@ -36381,7 +36378,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="13.8" thickTop="1">
-      <c r="C16" s="231" t="s">
+      <c r="C16" s="235" t="s">
         <v>248</v>
       </c>
       <c r="D16" s="202" t="s">
@@ -36419,7 +36416,7 @@
       </c>
     </row>
     <row r="17" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C17" s="229"/>
+      <c r="C17" s="233"/>
       <c r="D17" s="203" t="s">
         <v>201</v>
       </c>
@@ -36455,7 +36452,7 @@
       </c>
     </row>
     <row r="18" spans="3:14" ht="15.75" customHeight="1">
-      <c r="C18" s="229"/>
+      <c r="C18" s="233"/>
       <c r="D18" s="203" t="s">
         <v>206</v>
       </c>
@@ -36491,7 +36488,7 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" customHeight="1">
-      <c r="C19" s="229"/>
+      <c r="C19" s="233"/>
       <c r="D19" s="203" t="s">
         <v>206</v>
       </c>
@@ -36527,8 +36524,8 @@
       </c>
     </row>
     <row r="20" spans="3:14" ht="15.75" customHeight="1">
-      <c r="C20" s="229"/>
-      <c r="D20" s="237" t="s">
+      <c r="C20" s="233"/>
+      <c r="D20" s="241" t="s">
         <v>213</v>
       </c>
       <c r="E20" s="203" t="s">
@@ -36563,8 +36560,8 @@
       </c>
     </row>
     <row r="21" spans="3:14" ht="15.75" customHeight="1">
-      <c r="C21" s="229"/>
-      <c r="D21" s="238"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="203" t="s">
         <v>217</v>
       </c>
@@ -36597,8 +36594,8 @@
       </c>
     </row>
     <row r="22" spans="3:14" ht="15.75" customHeight="1">
-      <c r="C22" s="229"/>
-      <c r="D22" s="237" t="s">
+      <c r="C22" s="233"/>
+      <c r="D22" s="241" t="s">
         <v>220</v>
       </c>
       <c r="E22" s="203" t="s">
@@ -36633,8 +36630,8 @@
       </c>
     </row>
     <row r="23" spans="3:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C23" s="230"/>
-      <c r="D23" s="238"/>
+      <c r="C23" s="234"/>
+      <c r="D23" s="242"/>
       <c r="E23" s="203" t="s">
         <v>223</v>
       </c>
@@ -36667,10 +36664,10 @@
       </c>
     </row>
     <row r="24" spans="3:14" ht="15.75" customHeight="1" thickTop="1">
-      <c r="C24" s="229" t="s">
+      <c r="C24" s="233" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="232" t="s">
+      <c r="D24" s="236" t="s">
         <v>231</v>
       </c>
       <c r="E24" s="204" t="s">
@@ -36705,8 +36702,8 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="15.75" customHeight="1" thickBot="1">
-      <c r="C25" s="230"/>
-      <c r="D25" s="233"/>
+      <c r="C25" s="234"/>
+      <c r="D25" s="237"/>
       <c r="E25" s="204" t="s">
         <v>235</v>
       </c>
@@ -36813,15 +36810,15 @@
       <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="242" t="s">
+      <c r="D1" s="246" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="244"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="248"/>
     </row>
     <row r="2" spans="3:10" ht="15.75" customHeight="1">
       <c r="C2" s="3" t="s">
@@ -36860,7 +36857,7 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C4" s="245"/>
+      <c r="C4" s="249"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
@@ -36870,7 +36867,7 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C5" s="246"/>
+      <c r="C5" s="250"/>
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="15"/>
@@ -36880,7 +36877,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C6" s="247"/>
+      <c r="C6" s="251"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19"/>
@@ -36890,7 +36887,7 @@
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C7" s="248"/>
+      <c r="C7" s="252"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="19"/>
@@ -36900,7 +36897,7 @@
       <c r="J7" s="20"/>
     </row>
     <row r="8" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C8" s="246"/>
+      <c r="C8" s="250"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19"/>
@@ -36920,15 +36917,15 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C10" s="249" t="s">
+      <c r="C10" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="240"/>
-      <c r="E10" s="240"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="240"/>
-      <c r="H10" s="240"/>
-      <c r="I10" s="241"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="245"/>
       <c r="J10" s="28">
         <f>SUM(J3:J9)</f>
         <v>0</v>
@@ -36948,15 +36945,15 @@
       <c r="C12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="250" t="s">
+      <c r="D12" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="240"/>
-      <c r="F12" s="240"/>
-      <c r="G12" s="240"/>
-      <c r="H12" s="240"/>
-      <c r="I12" s="240"/>
-      <c r="J12" s="241"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="245"/>
     </row>
     <row r="13" spans="3:10" ht="15.75" customHeight="1">
       <c r="C13" s="3" t="s">
@@ -37015,15 +37012,15 @@
       <c r="J16" s="47"/>
     </row>
     <row r="17" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C17" s="251" t="s">
+      <c r="C17" s="255" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="240"/>
-      <c r="E17" s="240"/>
-      <c r="F17" s="240"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="240"/>
-      <c r="I17" s="241"/>
+      <c r="D17" s="244"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244"/>
+      <c r="I17" s="245"/>
       <c r="J17" s="49">
         <f>SUM(J14:J16)</f>
         <v>0</v>
@@ -37073,15 +37070,15 @@
       <c r="C22" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="250" t="s">
+      <c r="D22" s="254" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="240"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="240"/>
-      <c r="H22" s="240"/>
-      <c r="I22" s="240"/>
-      <c r="J22" s="241"/>
+      <c r="E22" s="244"/>
+      <c r="F22" s="244"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="244"/>
+      <c r="J22" s="245"/>
     </row>
     <row r="23" spans="3:11" ht="15.75" customHeight="1">
       <c r="C23" s="3" t="s">
@@ -37121,7 +37118,7 @@
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C25" s="252"/>
+      <c r="C25" s="256"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="57"/>
@@ -37132,7 +37129,7 @@
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C26" s="246"/>
+      <c r="C26" s="250"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="57"/>
@@ -37143,7 +37140,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C27" s="253"/>
+      <c r="C27" s="257"/>
       <c r="D27" s="44"/>
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
@@ -37154,7 +37151,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C28" s="246"/>
+      <c r="C28" s="250"/>
       <c r="D28" s="58"/>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
@@ -37176,9 +37173,9 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C30" s="254"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="256"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="259"/>
+      <c r="E30" s="260"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="27"/>
@@ -37187,9 +37184,9 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="3:11" ht="15.75" customHeight="1">
-      <c r="C31" s="246"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="241"/>
+      <c r="C31" s="250"/>
+      <c r="D31" s="245"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="25"/>
       <c r="G31" s="26"/>
       <c r="H31" s="27"/>
@@ -37209,15 +37206,15 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C33" s="239" t="s">
+      <c r="C33" s="243" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="240"/>
-      <c r="E33" s="240"/>
-      <c r="F33" s="240"/>
-      <c r="G33" s="240"/>
-      <c r="H33" s="240"/>
-      <c r="I33" s="241"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="245"/>
       <c r="J33" s="60">
         <f>SUM(J24:J32)</f>
         <v>0</v>
@@ -37253,8 +37250,8 @@
   </sheetPr>
   <dimension ref="A1:AB1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -37379,10 +37376,10 @@
     </row>
     <row r="3" spans="1:28" s="69" customFormat="1" ht="27.6">
       <c r="A3" s="75"/>
-      <c r="B3" s="258" t="s">
+      <c r="B3" s="223" t="s">
         <v>255</v>
       </c>
-      <c r="C3" s="260" t="s">
+      <c r="C3" s="225" t="s">
         <v>257</v>
       </c>
       <c r="D3" s="115" t="s">
@@ -37429,15 +37426,33 @@
     <row r="4" spans="1:28" s="69" customFormat="1" ht="19.2" customHeight="1">
       <c r="A4" s="75"/>
       <c r="B4" s="76"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="81"/>
+      <c r="C4" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="77">
+        <v>1</v>
+      </c>
+      <c r="H4" s="84">
+        <v>12727</v>
+      </c>
+      <c r="I4" s="85">
+        <v>0</v>
+      </c>
+      <c r="J4" s="84">
+        <v>20000</v>
+      </c>
+      <c r="K4" s="81">
+        <v>32727</v>
+      </c>
       <c r="L4" s="77"/>
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
@@ -38192,7 +38207,7 @@
       <c r="H30" s="86"/>
       <c r="I30" s="85"/>
       <c r="J30" s="84"/>
-      <c r="K30" s="257"/>
+      <c r="K30" s="222"/>
       <c r="L30" s="77"/>
       <c r="M30" s="65"/>
       <c r="N30" s="65"/>
@@ -38314,7 +38329,7 @@
       <c r="J34" s="63"/>
       <c r="K34" s="64">
         <f>SUMPRODUCT(G2:G29,H2:H29)</f>
-        <v>7000</v>
+        <v>19727</v>
       </c>
       <c r="L34" s="61"/>
       <c r="M34" s="61"/>
@@ -38349,7 +38364,7 @@
       <c r="J35" s="63"/>
       <c r="K35" s="64">
         <f>SUMIF(G2:G29,"&gt;0",J2:J29)</f>
-        <v>2700</v>
+        <v>22700</v>
       </c>
       <c r="L35" s="61"/>
       <c r="M35" s="61"/>
@@ -38419,7 +38434,7 @@
       <c r="J37" s="63"/>
       <c r="K37" s="64">
         <f>SUM(K34:K36)</f>
-        <v>10400</v>
+        <v>43127</v>
       </c>
       <c r="L37" s="61" t="s">
         <v>22</v>
